--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,47 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F228C119-A988-F79A-765E-E926209FCA44}</author>
-  </authors>
-  <commentList>
-    <comment ref="C15" authorId="0" xr:uid="{F228C119-A988-F79A-765E-E926209FCA44}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>thebandik:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Сдал 1 и 3
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -195,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,10 +176,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -226,12 +198,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="thebandik" id="{2AE1E356-022D-E7E2-9136-48CF5E1DF7FD}" userId="thebandik" providerId="Teamlab"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,15 +690,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{2AE1E356-022D-E7E2-9136-48CF5E1DF7FD}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
-    <text xml:space="preserve">Сдал 1 и 3
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
@@ -757,8 +714,12 @@
       <c r="C1" s="3">
         <v>44942</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="3">
+        <v>44949</v>
+      </c>
+      <c r="E1" s="3">
+        <v>44949</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -782,11 +743,15 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -810,11 +775,15 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -838,11 +807,15 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -866,11 +839,15 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -894,11 +871,15 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -922,11 +903,15 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -950,11 +935,15 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -978,11 +967,15 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1006,11 +999,15 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1034,11 +1031,15 @@
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1062,11 +1063,15 @@
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1090,11 +1095,15 @@
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1118,11 +1127,15 @@
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1146,11 +1159,15 @@
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1174,11 +1191,15 @@
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1202,11 +1223,15 @@
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1232,7 +1257,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00470075-003E-4291-9C9B-00E900C4005D}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002400A8-0014-4631-BDFE-001000040045}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1249,7 +1274,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004100E4-0092-403F-9310-009700A700DD}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004F00A4-0003-4667-9396-00ED00E10036}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1266,7 +1291,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00F90065-00E0-410B-87C6-001400DB009E}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007A0037-0072-4AFE-B6DD-00BB000800DA}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1310,7 +1335,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1733,12 +1758,11 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00BD0008-00FA-4C84-83BA-003A00EE0046}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E60075-002F-4888-8A7B-006D0000002F}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1755,7 +1779,7 @@
           <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005E00B3-0013-4B6F-8A29-00720092006F}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00640099-00FA-4199-AC67-00DC00FF00F9}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1772,7 +1796,7 @@
           <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00AF009F-0041-4C44-A715-003D001B0028}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DD0080-000C-4D49-BE6F-00420073003D}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1814,8 +1838,12 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="5">
+        <v>44949</v>
+      </c>
+      <c r="D1" s="6">
+        <v>44950</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1840,8 +1868,12 @@
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1866,8 +1898,12 @@
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1892,8 +1928,12 @@
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1918,8 +1958,12 @@
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1944,8 +1988,12 @@
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1970,8 +2018,12 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1996,8 +2048,12 @@
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2022,8 +2078,12 @@
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2048,8 +2108,12 @@
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2074,8 +2138,12 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2100,8 +2168,12 @@
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2126,8 +2198,12 @@
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2146,8 +2222,8 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2168,8 +2244,8 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2190,8 +2266,8 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2212,8 +2288,8 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2242,7 +2318,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000A00DA-0002-47AE-8DC8-00AC00040072}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00CC002C-008D-4DB5-BEB6-00C1007B00C6}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2259,7 +2335,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00CA00C4-00B4-450F-8748-00E8006B00C4}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00BE0043-001C-467E-B02D-00DA006A00A3}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2276,7 +2352,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D20092-001C-4EFB-B0E8-00AB00900087}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D9008E-004A-4348-9322-00F6004B00A7}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2318,7 +2394,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="5">
+        <v>1</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2578,7 +2656,9 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2630,7 +2710,9 @@
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2658,7 +2740,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000500CE-00E0-47B8-8AB7-00C50059009A}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0052007A-001F-4E3D-ADAF-00E1005800E8}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2675,7 +2757,7 @@
           <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00CC00D4-000D-4DC4-960E-009800D100CF}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F5009A-0094-4688-A445-004A00810041}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2692,7 +2774,7 @@
           <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00930056-0092-404F-8406-009C00A5006C}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A10023-0018-46DA-A22A-004400EB00D0}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_521DB3BA9F4CD090E89490402AD83A2B70C6DFAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C88F3D-7F9C-441F-BAB3-FEF3BCB1D372}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -24,108 +39,105 @@
     <t>Студент</t>
   </si>
   <si>
-    <t xml:space="preserve">Будников Никита</t>
+    <t>Будников Никита</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t xml:space="preserve">Воскобейников Даниил</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Галицкая Каролина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гоев Матвей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добривечер Анастасия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клеванец Петр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клепалов Константин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кончаков Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корбан Владислав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лапин Аркадий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Олейник Данила</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Путилина Екатерина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сальков Иван</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смородин Игнат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шамшин Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юрченко Дмитрий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бегун Анастасия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Буров Владислав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вецан Дмитрий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Даниляк Михаил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кван Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кляченков Дмитрий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крапивина Софья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кузьменко Олег</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Манаенков Александр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Черепков Ярослав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шальнов Данил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шевцов Никита</t>
+    <t>Воскобейников Даниил</t>
+  </si>
+  <si>
+    <t>Галицкая Каролина</t>
+  </si>
+  <si>
+    <t>Гоев Матвей</t>
+  </si>
+  <si>
+    <t>Добривечер Анастасия</t>
+  </si>
+  <si>
+    <t>Клеванец Петр</t>
+  </si>
+  <si>
+    <t>Клепалов Константин</t>
+  </si>
+  <si>
+    <t>Кончаков Максим</t>
+  </si>
+  <si>
+    <t>Корбан Владислав</t>
+  </si>
+  <si>
+    <t>Лапин Аркадий</t>
+  </si>
+  <si>
+    <t>Олейник Данила</t>
+  </si>
+  <si>
+    <t>Путилина Екатерина</t>
+  </si>
+  <si>
+    <t>Сальков Иван</t>
+  </si>
+  <si>
+    <t>Смородин Игнат</t>
+  </si>
+  <si>
+    <t>Шамшин Максим</t>
+  </si>
+  <si>
+    <t>Юрченко Дмитрий</t>
+  </si>
+  <si>
+    <t>Бегун Анастасия</t>
+  </si>
+  <si>
+    <t>Буров Владислав</t>
+  </si>
+  <si>
+    <t>Вецан Дмитрий</t>
+  </si>
+  <si>
+    <t>Даниляк Михаил</t>
+  </si>
+  <si>
+    <t>Кван Максим</t>
+  </si>
+  <si>
+    <t>Кляченков Дмитрий</t>
+  </si>
+  <si>
+    <t>Крапивина Софья</t>
+  </si>
+  <si>
+    <t>Кузьменко Олег</t>
+  </si>
+  <si>
+    <t>Манаенков Александр</t>
+  </si>
+  <si>
+    <t>Черепков Ярослав</t>
+  </si>
+  <si>
+    <t>Шальнов Данил</t>
+  </si>
+  <si>
+    <t>Шевцов Никита</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd/mmm"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -162,329 +174,172 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -687,24 +542,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="21.8515625"/>
-    <col min="3" max="20" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1"/>
+    <col min="3" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,7 +577,9 @@
       <c r="E1" s="3">
         <v>44949</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3">
+        <v>44952</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -736,7 +595,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -752,7 +611,9 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -768,15 +629,15 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -784,7 +645,9 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -800,7 +663,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -808,15 +671,17 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -832,7 +697,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -848,7 +713,9 @@
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -864,7 +731,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -880,7 +747,9 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -896,7 +765,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -912,7 +781,9 @@
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -928,7 +799,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -944,7 +815,9 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -960,7 +833,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -976,7 +849,9 @@
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -992,7 +867,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1000,7 +875,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1008,7 +883,9 @@
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1024,7 +901,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1040,7 +917,9 @@
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1056,7 +935,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1067,12 +946,14 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1088,7 +969,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1104,7 +985,9 @@
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1120,7 +1003,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1128,15 +1011,17 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1152,7 +1037,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1168,7 +1053,9 @@
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1184,7 +1071,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1195,12 +1082,14 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1216,7 +1105,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1227,12 +1116,14 @@
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1249,93 +1140,52 @@
       <c r="T17" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002400A8-0014-4631-BDFE-001000040045}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004F00A4-0003-4667-9396-00ED00E10036}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007A0037-0072-4AFE-B6DD-00BB000800DA}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="21.8515625"/>
-    <col bestFit="1" min="12" max="12" width="9.8515625"/>
-    <col bestFit="1" min="20" max="20" width="9.8515625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1353,7 +1203,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1378,12 +1228,12 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1403,7 +1253,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1428,7 +1278,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1453,7 +1303,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1478,7 +1328,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1503,7 +1353,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1528,7 +1378,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1553,7 +1403,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1578,7 +1428,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1603,7 +1453,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1628,14 +1478,16 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1653,7 +1505,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1678,7 +1530,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1703,7 +1555,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1728,7 +1580,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1754,98 +1606,59 @@
       <c r="S17" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E60075-002F-4888-8A7B-006D0000002F}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00640099-00FA-4199-AC67-00DC00FF00F9}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DD0080-000C-4D49-BE6F-00420073003D}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="20.8515625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="3">
         <v>44949</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="3">
         <v>44950</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="3">
+        <v>44951</v>
+      </c>
+      <c r="F1" s="3">
+        <v>44956</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1861,7 +1674,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1869,13 +1682,17 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1891,7 +1708,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1901,11 +1718,15 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1921,7 +1742,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1931,11 +1752,15 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1951,7 +1776,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1959,13 +1784,17 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1981,7 +1810,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1989,13 +1818,17 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2011,7 +1844,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2021,11 +1854,15 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2041,7 +1878,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2051,11 +1888,15 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2071,7 +1912,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2079,13 +1920,17 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2101,7 +1946,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2111,11 +1956,15 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2131,7 +1980,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2141,11 +1990,15 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2161,7 +2014,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2171,11 +2024,15 @@
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2191,7 +2048,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2201,11 +2058,15 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2221,9 +2082,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:20">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2243,9 +2102,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+    <row r="15" spans="1:20">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2265,9 +2122,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+    <row r="16" spans="1:20">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2287,9 +2142,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+    <row r="17" spans="3:20">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2310,94 +2163,53 @@
       <c r="T17" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00CC002C-008D-4DB5-BEB6-00C1007B00C6}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00BE0043-001C-467E-B02D-00DA006A00A3}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D9008E-004A-4348-9322-00F6004B00A7}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="20.8515625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2415,7 +2227,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2441,15 +2253,19 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2467,7 +2283,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2493,7 +2309,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2519,14 +2335,16 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2545,14 +2363,16 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2571,14 +2391,16 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2597,7 +2419,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2623,15 +2445,19 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2649,7 +2475,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2677,7 +2503,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2703,7 +2529,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2713,7 +2539,9 @@
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2732,66 +2560,22 @@
       <c r="T13" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0052007A-001F-4E3D-ADAF-00E1005800E8}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F5009A-0094-4688-A445-004A00810041}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A10023-0018-46DA-A22A-004400EB00D0}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_521DB3BA9F4CD090E89490402AD83A2B70C6DFAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C88F3D-7F9C-441F-BAB3-FEF3BCB1D372}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_521DB3BA9F4CD090E89490402AD83A2B70C6DFAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{080335AB-42AA-4F39-9E3C-B2C81A0FF634}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="41">
   <si>
     <t>№</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>Юрченко Дмитрий</t>
+  </si>
+  <si>
+    <t>База</t>
+  </si>
+  <si>
+    <t>Виджеты</t>
+  </si>
+  <si>
+    <t>Макеты</t>
+  </si>
+  <si>
+    <t>Меню</t>
+  </si>
+  <si>
+    <t>Диалог</t>
+  </si>
+  <si>
+    <t>Окна</t>
+  </si>
+  <si>
+    <t>Дизайн</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
   <si>
     <t>Бегун Анастасия</t>
@@ -149,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,11 +199,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +243,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,7 +612,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -580,8 +641,12 @@
       <c r="F1" s="3">
         <v>44952</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44959</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -614,8 +679,12 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -648,8 +717,12 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -682,8 +755,12 @@
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -716,8 +793,12 @@
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -750,8 +831,12 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -784,8 +869,12 @@
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -818,8 +907,12 @@
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -852,8 +945,12 @@
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -886,8 +983,12 @@
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -920,8 +1021,12 @@
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -954,8 +1059,12 @@
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -988,8 +1097,12 @@
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1022,8 +1135,12 @@
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1056,8 +1173,12 @@
       <c r="F15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1090,8 +1211,12 @@
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1124,8 +1249,12 @@
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1164,14 +1293,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1"/>
     <col min="20" max="20" width="9.85546875" bestFit="1"/>
   </cols>
@@ -1183,18 +1321,34 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1210,16 +1364,18 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1242,9 +1398,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1267,9 +1423,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1292,9 +1448,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1317,9 +1473,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1342,9 +1498,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1367,9 +1523,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1392,9 +1548,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1417,9 +1573,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1442,9 +1598,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1467,9 +1623,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1486,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1494,9 +1650,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1519,9 +1675,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1537,16 +1693,18 @@
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1569,9 +1727,9 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1594,9 +1752,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1631,7 +1789,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1659,7 +1817,9 @@
       <c r="F1" s="3">
         <v>44956</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="3">
+        <v>44957</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1679,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1693,7 +1853,9 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1713,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1727,7 +1889,9 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1747,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1761,7 +1925,9 @@
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1781,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -1795,7 +1961,9 @@
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1815,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1829,7 +1997,9 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1849,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -1863,7 +2033,9 @@
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1883,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -1897,7 +2069,9 @@
       <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1917,7 +2091,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1931,7 +2105,9 @@
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1951,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -1965,7 +2141,9 @@
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1985,7 +2163,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -1999,7 +2177,9 @@
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2019,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -2033,7 +2213,9 @@
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2053,7 +2235,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -2067,7 +2249,9 @@
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2187,14 +2371,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -2204,20 +2397,34 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2232,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2241,9 +2448,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6">
+        <f>SUM(C2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2258,22 +2468,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K13" si="0">SUM(C3:J3)</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2288,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2297,9 +2508,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2314,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2323,9 +2537,12 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2340,10 +2557,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2351,9 +2568,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2368,7 +2588,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -2379,9 +2599,12 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2396,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -2407,9 +2630,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2424,7 +2650,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2433,9 +2659,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2450,22 +2679,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2480,10 +2710,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2491,9 +2721,12 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2508,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2517,9 +2750,12 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2534,22 +2770,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2560,17 +2797,17 @@
       <c r="T13" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+  <conditionalFormatting sqref="C2:T13">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+  <conditionalFormatting sqref="C2:T13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+  <conditionalFormatting sqref="C2:T13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14FEE980-4FF6-4967-A0BF-B42D3EBD8D8C}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B132B681-CFA2-4DCF-9583-65ACEBB05EFD}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -498,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -544,7 +544,9 @@
       <c r="K1" s="6">
         <v>44970</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="6">
+        <v>44973</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -588,7 +590,9 @@
       <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -632,7 +636,9 @@
       <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -676,7 +682,9 @@
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -720,7 +728,9 @@
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -764,7 +774,9 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -808,7 +820,9 @@
       <c r="K7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -852,7 +866,9 @@
       <c r="K8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -896,7 +912,9 @@
       <c r="K9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -940,7 +958,9 @@
       <c r="K10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -984,7 +1004,9 @@
       <c r="K11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1028,7 +1050,9 @@
       <c r="K12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1072,7 +1096,9 @@
       <c r="K13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1116,7 +1142,9 @@
       <c r="K14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1160,7 +1188,9 @@
       <c r="K15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1204,7 +1234,9 @@
       <c r="K16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1248,7 +1280,9 @@
       <c r="K17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -1271,8 +1305,8 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1625,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1758,15 +1792,18 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1800,7 +1837,9 @@
       <c r="J1" s="6">
         <v>44965</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="6">
+        <v>44971</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1842,7 +1881,9 @@
       <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1884,7 +1925,9 @@
       <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1926,7 +1969,9 @@
       <c r="J4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1968,7 +2013,9 @@
       <c r="J5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2010,7 +2057,9 @@
       <c r="J6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2052,7 +2101,9 @@
       <c r="J7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2094,7 +2145,9 @@
       <c r="J8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2136,7 +2189,9 @@
       <c r="J9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2178,7 +2233,9 @@
       <c r="J10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2220,7 +2277,9 @@
       <c r="J11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2262,7 +2321,9 @@
       <c r="J12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -2304,7 +2365,9 @@
       <c r="J13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2409,7 +2472,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2727,7 +2790,9 @@
       <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2735,7 +2800,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="4">
         <f>SUM(C10:J10)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B132B681-CFA2-4DCF-9583-65ACEBB05EFD}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738BCC9A-0E35-42A8-BDF3-ED738735B626}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -547,7 +547,7 @@
       <c r="L1" s="6">
         <v>44973</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -1305,8 +1305,8 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1793,7 +1793,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738BCC9A-0E35-42A8-BDF3-ED738735B626}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E1A259-6110-4293-8BD0-12FA6F2E87CD}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
   <si>
     <t>Студент</t>
+  </si>
+  <si>
+    <t>Рейтинг</t>
   </si>
   <si>
     <t>Будников Никита</t>
@@ -163,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +178,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -220,11 +228,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -266,11 +289,48 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -496,10 +556,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -510,7 +570,7 @@
     <col min="10" max="20" width="9.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
+    <row r="1" spans="1:21" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -547,752 +607,902 @@
       <c r="L1" s="6">
         <v>44973</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5"/>
+      <c r="M1" s="15">
+        <v>44977</v>
+      </c>
+      <c r="N1" s="6">
+        <v>44979</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" ht="15">
+      <c r="U1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5">
+        <v>10</v>
+      </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" ht="15">
+      <c r="U2" s="16">
+        <f>SUM(L2:T2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-10</v>
+      </c>
+      <c r="N3" s="5">
+        <v>-15</v>
+      </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" ht="15">
+      <c r="U3" s="16">
+        <f t="shared" ref="U3:U17" si="0">SUM(L3:T3)</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>15</v>
+      </c>
+      <c r="N4" s="5">
+        <v>10</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" ht="15">
+      <c r="U4" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>-10</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-15</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" ht="15">
+      <c r="U5" s="16">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="5">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5">
+        <v>10</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" ht="15">
+      <c r="U6" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="5">
+        <v>15</v>
+      </c>
+      <c r="N7" s="5">
+        <v>10</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" ht="15">
+      <c r="U7" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="5">
+        <v>15</v>
+      </c>
+      <c r="N8" s="5">
+        <v>10</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" ht="15">
+      <c r="U8" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>15</v>
+      </c>
+      <c r="N9" s="5">
+        <v>-15</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" ht="15">
+      <c r="U9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M10" s="5">
+        <v>15</v>
+      </c>
+      <c r="N10" s="5">
+        <v>10</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" ht="15">
+      <c r="U10" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>15</v>
+      </c>
+      <c r="N11" s="5">
+        <v>10</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" ht="15">
+      <c r="U11" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>15</v>
+      </c>
+      <c r="N12" s="5">
+        <v>10</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" ht="15">
+      <c r="U12" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="5">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5">
+        <v>10</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" ht="15">
+      <c r="U13" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="5">
+        <v>15</v>
+      </c>
+      <c r="N14" s="5">
+        <v>10</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" ht="15">
+      <c r="U14" s="16">
+        <f>SUM(L14:T14)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="5">
+        <v>15</v>
+      </c>
+      <c r="N15" s="5">
+        <v>10</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" ht="15">
+      <c r="U15" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M16" s="5">
+        <v>15</v>
+      </c>
+      <c r="N16" s="5">
+        <v>10</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:20" ht="15">
+      <c r="U16" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="5">
+        <v>15</v>
+      </c>
+      <c r="N17" s="5">
+        <v>-15</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
+      <c r="U17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U2:U17">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U17">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U17">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
@@ -1306,7 +1516,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1334,31 +1544,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
@@ -1374,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
@@ -1401,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -1426,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1451,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -1476,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -1501,7 +1711,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1526,7 +1736,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1551,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1576,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -1601,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
@@ -1628,9 +1838,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1653,7 +1865,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -1682,7 +1894,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -1707,13 +1919,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1734,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -1759,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -1790,10 +2006,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1802,11 +2018,11 @@
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1840,545 +2056,700 @@
       <c r="K1" s="6">
         <v>44971</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="L1" s="15">
+        <v>44977</v>
+      </c>
+      <c r="M1" s="6">
+        <v>44978</v>
+      </c>
+      <c r="N1" s="6">
+        <v>44979</v>
+      </c>
+      <c r="O1" s="6">
+        <v>44985</v>
+      </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="T1" s="11"/>
+      <c r="U1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L2" s="5">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-15</v>
+      </c>
+      <c r="N2" s="5">
+        <v>-15</v>
+      </c>
+      <c r="O2" s="5">
+        <v>-15</v>
+      </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="T2" s="11"/>
+      <c r="U2" s="16">
+        <f>SUM(L2:T2)</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L3" s="5">
+        <v>15</v>
+      </c>
+      <c r="M3" s="5">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5">
+        <v>10</v>
+      </c>
+      <c r="O3" s="5">
+        <v>10</v>
+      </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="T3" s="11"/>
+      <c r="U3" s="16">
+        <f t="shared" ref="U3:U13" si="0">SUM(L3:T3)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>15</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-15</v>
+      </c>
+      <c r="N4" s="5">
+        <v>-15</v>
+      </c>
+      <c r="O4" s="5">
+        <v>-15</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="T4" s="11"/>
+      <c r="U4" s="16">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>-10</v>
+      </c>
+      <c r="M5" s="5">
+        <v>-15</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-15</v>
+      </c>
+      <c r="O5" s="5">
+        <v>-15</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="T5" s="11"/>
+      <c r="U5" s="16">
+        <f t="shared" si="0"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>15</v>
+      </c>
+      <c r="M6" s="5">
+        <v>-15</v>
+      </c>
+      <c r="N6" s="5">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5">
+        <v>10</v>
+      </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="T6" s="11"/>
+      <c r="U6" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="5">
+        <v>15</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5">
+        <v>10</v>
+      </c>
+      <c r="O7" s="5">
+        <v>10</v>
+      </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="T7" s="11"/>
+      <c r="U7" s="16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>15</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5">
+        <v>10</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="T8" s="11"/>
+      <c r="U8" s="16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="5">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-15</v>
+      </c>
+      <c r="N9" s="5">
+        <v>-15</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-15</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="T9" s="11"/>
+      <c r="U9" s="16">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>10</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="T10" s="11"/>
+      <c r="U10" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="5">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5">
+        <v>10</v>
+      </c>
+      <c r="N11" s="5">
+        <v>10</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-15</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="T11" s="11"/>
+      <c r="U11" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>15</v>
+      </c>
+      <c r="M12" s="5">
+        <v>10</v>
+      </c>
+      <c r="N12" s="5">
+        <v>10</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-15</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="T12" s="11"/>
+      <c r="U12" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
+        <v>15</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10</v>
+      </c>
+      <c r="N13" s="5">
+        <v>10</v>
+      </c>
+      <c r="O13" s="5">
+        <v>10</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" ht="18.75" customHeight="1">
+      <c r="T13" s="11"/>
+      <c r="U13" s="16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1">
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -2398,7 +2769,7 @@
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" ht="18.75" customHeight="1">
+    <row r="15" spans="1:21" ht="18.75" customHeight="1">
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -2418,7 +2789,7 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" ht="18.75" customHeight="1">
+    <row r="16" spans="1:21" ht="18.75" customHeight="1">
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -2459,6 +2830,21 @@
       <c r="T17" s="12"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U2:U13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
@@ -2471,8 +2857,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2499,31 +2885,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
@@ -2540,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2569,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -2577,7 +2963,9 @@
       <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2585,7 +2973,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="4">
         <f>SUM(C3:J3)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -2602,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2631,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2660,10 +3048,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -2674,7 +3062,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="4">
         <f>SUM(C6:J6)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -2691,13 +3079,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2705,7 +3097,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="4">
         <f>SUM(C7:J7)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -2722,12 +3114,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -2736,7 +3130,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="4">
         <f>SUM(C8:J8)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -2753,7 +3147,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2782,7 +3176,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
@@ -2817,10 +3211,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
@@ -2833,7 +3227,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="4">
         <f>SUM(C11:J11)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -2850,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2879,7 +3273,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
@@ -2887,7 +3281,9 @@
       <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2895,7 +3291,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="4">
         <f>SUM(C13:J13)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="299" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E1A259-6110-4293-8BD0-12FA6F2E87CD}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDC7A12-3350-4589-8AF0-A7560BE6FC9C}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -613,8 +613,12 @@
       <c r="N1" s="6">
         <v>44979</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="O1" s="6">
+        <v>44987</v>
+      </c>
+      <c r="P1" s="6">
+        <v>44987</v>
+      </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -666,15 +670,19 @@
       <c r="N2" s="5">
         <v>10</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="O2" s="5">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5">
+        <v>10</v>
+      </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="16">
         <f>SUM(L2:T2)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15">
@@ -715,20 +723,24 @@
         <v>4</v>
       </c>
       <c r="M3" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
         <v>-15</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="P3" s="5">
+        <v>10</v>
+      </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="16">
         <f t="shared" ref="U3:U17" si="0">SUM(L3:T3)</f>
-        <v>-25</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15">
@@ -774,15 +786,19 @@
       <c r="N4" s="5">
         <v>10</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="O4" s="5">
+        <v>-15</v>
+      </c>
+      <c r="P4" s="5">
+        <v>10</v>
+      </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15">
@@ -828,15 +844,19 @@
       <c r="N5" s="5">
         <v>-15</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="O5" s="5">
+        <v>10</v>
+      </c>
+      <c r="P5" s="5">
+        <v>10</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="16">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15">
@@ -882,15 +902,19 @@
       <c r="N6" s="5">
         <v>10</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="O6" s="5">
+        <v>-15</v>
+      </c>
+      <c r="P6" s="5">
+        <v>-15</v>
+      </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15">
@@ -936,15 +960,19 @@
       <c r="N7" s="5">
         <v>10</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="O7" s="5">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5">
+        <v>10</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15">
@@ -990,15 +1018,19 @@
       <c r="N8" s="5">
         <v>10</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="O8" s="5">
+        <v>10</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15">
@@ -1044,15 +1076,19 @@
       <c r="N9" s="5">
         <v>-15</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="O9" s="5">
+        <v>10</v>
+      </c>
+      <c r="P9" s="5">
+        <v>10</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15">
@@ -1098,15 +1134,19 @@
       <c r="N10" s="5">
         <v>10</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="O10" s="5">
+        <v>10</v>
+      </c>
+      <c r="P10" s="5">
+        <v>10</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15">
@@ -1152,15 +1192,19 @@
       <c r="N11" s="5">
         <v>10</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="O11" s="5">
+        <v>10</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-15</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15">
@@ -1206,15 +1250,19 @@
       <c r="N12" s="5">
         <v>10</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="O12" s="5">
+        <v>10</v>
+      </c>
+      <c r="P12" s="5">
+        <v>10</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15">
@@ -1260,15 +1308,19 @@
       <c r="N13" s="5">
         <v>10</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="O13" s="5">
+        <v>10</v>
+      </c>
+      <c r="P13" s="5">
+        <v>10</v>
+      </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15">
@@ -1314,15 +1366,19 @@
       <c r="N14" s="5">
         <v>10</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="O14" s="5">
+        <v>10</v>
+      </c>
+      <c r="P14" s="5">
+        <v>10</v>
+      </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="16">
         <f>SUM(L14:T14)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
@@ -1368,15 +1424,19 @@
       <c r="N15" s="5">
         <v>10</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="O15" s="5">
+        <v>10</v>
+      </c>
+      <c r="P15" s="5">
+        <v>10</v>
+      </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -1422,15 +1482,19 @@
       <c r="N16" s="5">
         <v>10</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="O16" s="5">
+        <v>10</v>
+      </c>
+      <c r="P16" s="5">
+        <v>10</v>
+      </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15">
@@ -1476,15 +1540,19 @@
       <c r="N17" s="5">
         <v>-15</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="O17" s="5">
+        <v>-15</v>
+      </c>
+      <c r="P17" s="5">
+        <v>10</v>
+      </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1584,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1868,12 +1936,14 @@
         <v>16</v>
       </c>
       <c r="C13" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1977,7 +2047,9 @@
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>10</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2009,7 +2081,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2068,8 +2140,10 @@
       <c r="O1" s="6">
         <v>44985</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="P1" s="6">
+        <v>44986</v>
+      </c>
+      <c r="Q1" s="6"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="11"/>
@@ -2123,14 +2197,16 @@
       <c r="O2" s="5">
         <v>-15</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="5">
+        <v>-15</v>
+      </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="11"/>
       <c r="U2" s="16">
         <f>SUM(L2:T2)</f>
-        <v>-30</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2179,14 +2255,16 @@
       <c r="O3" s="5">
         <v>10</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="5">
+        <v>10</v>
+      </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="11"/>
       <c r="U3" s="16">
         <f t="shared" ref="U3:U13" si="0">SUM(L3:T3)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2235,14 +2313,16 @@
       <c r="O4" s="5">
         <v>-15</v>
       </c>
-      <c r="P4" s="5"/>
+      <c r="P4" s="5">
+        <v>10</v>
+      </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2291,14 +2371,16 @@
       <c r="O5" s="5">
         <v>-15</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="P5" s="5">
+        <v>-15</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="11"/>
       <c r="U5" s="16">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2347,14 +2429,16 @@
       <c r="O6" s="5">
         <v>10</v>
       </c>
-      <c r="P6" s="5"/>
+      <c r="P6" s="5">
+        <v>10</v>
+      </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="11"/>
       <c r="U6" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2403,14 +2487,16 @@
       <c r="O7" s="5">
         <v>10</v>
       </c>
-      <c r="P7" s="5"/>
+      <c r="P7" s="5">
+        <v>10</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="11"/>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2459,14 +2545,16 @@
       <c r="O8" s="5">
         <v>10</v>
       </c>
-      <c r="P8" s="5"/>
+      <c r="P8" s="5">
+        <v>10</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="11"/>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2515,14 +2603,16 @@
       <c r="O9" s="5">
         <v>-15</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="5">
+        <v>-15</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="11"/>
       <c r="U9" s="16">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2571,14 +2661,16 @@
       <c r="O10" s="5">
         <v>10</v>
       </c>
-      <c r="P10" s="5"/>
+      <c r="P10" s="5">
+        <v>10</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="11"/>
       <c r="U10" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2627,14 +2719,16 @@
       <c r="O11" s="5">
         <v>-15</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="5">
+        <v>10</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="11"/>
       <c r="U11" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2669,7 +2763,7 @@
         <v>36</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="L12" s="5">
         <v>15</v>
@@ -2683,14 +2777,16 @@
       <c r="O12" s="5">
         <v>-15</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="5">
+        <v>10</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="11"/>
       <c r="U12" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2739,14 +2835,16 @@
       <c r="O13" s="5">
         <v>10</v>
       </c>
-      <c r="P13" s="5"/>
+      <c r="P13" s="5">
+        <v>10</v>
+      </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="11"/>
       <c r="U13" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18.75" customHeight="1">
@@ -2858,7 +2956,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3122,7 +3220,9 @@
       <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3130,7 +3230,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="4">
         <f>SUM(C8:J8)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -3246,8 +3346,12 @@
       <c r="B12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3256,7 +3360,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="4">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="360" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDC7A12-3350-4589-8AF0-A7560BE6FC9C}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{618EA0C7-308D-4396-8D5A-6FF82D4A0832}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -619,7 +619,9 @@
       <c r="P1" s="6">
         <v>44987</v>
       </c>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="6">
+        <v>44991</v>
+      </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
@@ -676,13 +678,15 @@
       <c r="P2" s="5">
         <v>10</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="5">
+        <v>15</v>
+      </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="16">
         <f>SUM(L2:T2)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15">
@@ -734,13 +738,15 @@
       <c r="P3" s="5">
         <v>10</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="5">
+        <v>15</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="16">
         <f t="shared" ref="U3:U17" si="0">SUM(L3:T3)</f>
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15">
@@ -792,13 +798,15 @@
       <c r="P4" s="5">
         <v>10</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="5">
+        <v>-10</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15">
@@ -850,13 +858,15 @@
       <c r="P5" s="5">
         <v>10</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <v>15</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="16">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15">
@@ -908,13 +918,15 @@
       <c r="P6" s="5">
         <v>-15</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <v>15</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="16">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15">
@@ -966,13 +978,15 @@
       <c r="P7" s="5">
         <v>10</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <v>15</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15">
@@ -1024,13 +1038,15 @@
       <c r="P8" s="5">
         <v>10</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>-10</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15">
@@ -1082,13 +1098,15 @@
       <c r="P9" s="5">
         <v>10</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5">
+        <v>15</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15">
@@ -1140,13 +1158,15 @@
       <c r="P10" s="5">
         <v>10</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5">
+        <v>15</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15">
@@ -1198,13 +1218,15 @@
       <c r="P11" s="5">
         <v>-15</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="5">
+        <v>15</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15">
@@ -1256,13 +1278,15 @@
       <c r="P12" s="5">
         <v>10</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="5">
+        <v>15</v>
+      </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15">
@@ -1314,13 +1338,15 @@
       <c r="P13" s="5">
         <v>10</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="5">
+        <v>15</v>
+      </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15">
@@ -1372,13 +1398,15 @@
       <c r="P14" s="5">
         <v>10</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="5">
+        <v>15</v>
+      </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="16">
         <f>SUM(L14:T14)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
@@ -1430,13 +1458,15 @@
       <c r="P15" s="5">
         <v>10</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="5">
+        <v>-10</v>
+      </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -1488,13 +1518,15 @@
       <c r="P16" s="5">
         <v>10</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="5">
+        <v>15</v>
+      </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15">
@@ -1546,13 +1578,15 @@
       <c r="P17" s="5">
         <v>10</v>
       </c>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="5">
+        <v>-10</v>
+      </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="16">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1618,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1884,8 +1918,12 @@
       <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2080,8 +2118,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2090,8 +2128,9 @@
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15">
@@ -2143,7 +2182,9 @@
       <c r="P1" s="6">
         <v>44986</v>
       </c>
-      <c r="Q1" s="6"/>
+      <c r="Q1" s="6">
+        <v>44991</v>
+      </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="11"/>
@@ -2200,13 +2241,15 @@
       <c r="P2" s="5">
         <v>-15</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="5">
+        <v>15</v>
+      </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="11"/>
       <c r="U2" s="16">
         <f>SUM(L2:T2)</f>
-        <v>-45</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2258,13 +2301,15 @@
       <c r="P3" s="5">
         <v>10</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="5">
+        <v>15</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="11"/>
       <c r="U3" s="16">
         <f t="shared" ref="U3:U13" si="0">SUM(L3:T3)</f>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2316,13 +2361,15 @@
       <c r="P4" s="5">
         <v>10</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="5">
+        <v>15</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2374,13 +2421,15 @@
       <c r="P5" s="5">
         <v>-15</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <v>-10</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="11"/>
       <c r="U5" s="16">
         <f t="shared" si="0"/>
-        <v>-70</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2432,13 +2481,15 @@
       <c r="P6" s="5">
         <v>10</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <v>15</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="11"/>
       <c r="U6" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2490,13 +2541,15 @@
       <c r="P7" s="5">
         <v>10</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <v>15</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="11"/>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2548,13 +2601,15 @@
       <c r="P8" s="5">
         <v>10</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>15</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="11"/>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2606,13 +2661,15 @@
       <c r="P9" s="5">
         <v>-15</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5">
+        <v>15</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="11"/>
       <c r="U9" s="16">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2664,13 +2721,15 @@
       <c r="P10" s="5">
         <v>10</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5">
+        <v>15</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="11"/>
       <c r="U10" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2722,13 +2781,15 @@
       <c r="P11" s="5">
         <v>10</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="5">
+        <v>15</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="11"/>
       <c r="U11" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2780,13 +2841,15 @@
       <c r="P12" s="5">
         <v>10</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="5">
+        <v>15</v>
+      </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="11"/>
       <c r="U12" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2838,13 +2901,15 @@
       <c r="P13" s="5">
         <v>10</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="5">
+        <v>15</v>
+      </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="11"/>
       <c r="U13" s="16">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18.75" customHeight="1">
@@ -2955,8 +3020,8 @@
   </sheetPr>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="396" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{618EA0C7-308D-4396-8D5A-6FF82D4A0832}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14817D81-7043-4808-A5A0-AB49804F674D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>25-35</t>
   </si>
   <si>
     <t>Бегун Анастасия</t>
@@ -558,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -567,7 +573,9 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15">
@@ -622,9 +630,13 @@
       <c r="Q1" s="6">
         <v>44991</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="R1" s="6">
+        <v>44994</v>
+      </c>
+      <c r="S1" s="6">
+        <v>45001</v>
+      </c>
+      <c r="T1" s="6"/>
       <c r="U1" s="16" t="s">
         <v>2</v>
       </c>
@@ -681,12 +693,16 @@
       <c r="Q2" s="5">
         <v>15</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="R2" s="5">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5">
+        <v>10</v>
+      </c>
       <c r="T2" s="5"/>
       <c r="U2" s="16">
-        <f>SUM(L2:T2)</f>
-        <v>60</v>
+        <f>SUM(M2:T2)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15">
@@ -741,12 +757,16 @@
       <c r="Q3" s="5">
         <v>15</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S3" s="5">
+        <v>10</v>
+      </c>
       <c r="T3" s="5"/>
       <c r="U3" s="16">
-        <f t="shared" ref="U3:U17" si="0">SUM(L3:T3)</f>
-        <v>10</v>
+        <f t="shared" ref="U3:U17" si="0">SUM(M3:T3)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15">
@@ -801,12 +821,16 @@
       <c r="Q4" s="5">
         <v>-10</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="R4" s="5">
+        <v>10</v>
+      </c>
+      <c r="S4" s="5">
+        <v>10</v>
+      </c>
       <c r="T4" s="5"/>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15">
@@ -861,12 +885,16 @@
       <c r="Q5" s="5">
         <v>15</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="R5" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S5" s="5">
+        <v>10</v>
+      </c>
       <c r="T5" s="5"/>
       <c r="U5" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15">
@@ -913,20 +941,24 @@
         <v>10</v>
       </c>
       <c r="O6" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <v>15</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="R6" s="5">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5">
+        <v>10</v>
+      </c>
       <c r="T6" s="5"/>
       <c r="U6" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15">
@@ -981,12 +1013,16 @@
       <c r="Q7" s="5">
         <v>15</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="R7" s="5">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5">
+        <v>10</v>
+      </c>
       <c r="T7" s="5"/>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15">
@@ -1039,14 +1075,18 @@
         <v>10</v>
       </c>
       <c r="Q8" s="5">
-        <v>-10</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>10</v>
+      </c>
       <c r="T8" s="5"/>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15">
@@ -1101,12 +1141,16 @@
       <c r="Q9" s="5">
         <v>15</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="R9" s="5">
+        <v>10</v>
+      </c>
+      <c r="S9" s="5">
+        <v>10</v>
+      </c>
       <c r="T9" s="5"/>
       <c r="U9" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15">
@@ -1161,12 +1205,16 @@
       <c r="Q10" s="5">
         <v>15</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="R10" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S10" s="5">
+        <v>-15</v>
+      </c>
       <c r="T10" s="5"/>
       <c r="U10" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15">
@@ -1221,12 +1269,16 @@
       <c r="Q11" s="5">
         <v>15</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="R11" s="5">
+        <v>10</v>
+      </c>
+      <c r="S11" s="5">
+        <v>10</v>
+      </c>
       <c r="T11" s="5"/>
       <c r="U11" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15">
@@ -1281,12 +1333,16 @@
       <c r="Q12" s="5">
         <v>15</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="R12" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S12" s="5">
+        <v>10</v>
+      </c>
       <c r="T12" s="5"/>
       <c r="U12" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15">
@@ -1341,12 +1397,16 @@
       <c r="Q13" s="5">
         <v>15</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="R13" s="5">
+        <v>10</v>
+      </c>
+      <c r="S13" s="5">
+        <v>10</v>
+      </c>
       <c r="T13" s="5"/>
       <c r="U13" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15">
@@ -1401,12 +1461,16 @@
       <c r="Q14" s="5">
         <v>15</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="R14" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S14" s="5">
+        <v>10</v>
+      </c>
       <c r="T14" s="5"/>
       <c r="U14" s="16">
-        <f>SUM(L14:T14)</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
@@ -1461,12 +1525,16 @@
       <c r="Q15" s="5">
         <v>-10</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="R15" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S15" s="5">
+        <v>-15</v>
+      </c>
       <c r="T15" s="5"/>
       <c r="U15" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -1521,12 +1589,16 @@
       <c r="Q16" s="5">
         <v>15</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="R16" s="5">
+        <v>10</v>
+      </c>
+      <c r="S16" s="5">
+        <v>10</v>
+      </c>
       <c r="T16" s="5"/>
       <c r="U16" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15">
@@ -1581,12 +1653,16 @@
       <c r="Q17" s="5">
         <v>-10</v>
       </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="R17" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S17" s="5">
+        <v>10</v>
+      </c>
       <c r="T17" s="5"/>
       <c r="U17" s="16">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
@@ -1615,10 +1691,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1691,14 +1767,23 @@
       <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4">
+        <f>SUM(C2:J2)</f>
+        <v>40</v>
+      </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -1723,7 +1808,10 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K17" si="0">SUM(C3:J3)</f>
+        <v>0</v>
+      </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -1740,15 +1828,22 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -1773,7 +1868,10 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1790,15 +1888,24 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1818,12 +1925,17 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -1840,15 +1952,24 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -1865,7 +1986,9 @@
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1873,7 +1996,10 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -1898,7 +2024,10 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -1929,7 +2058,10 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -1951,12 +2083,17 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>8</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -1982,12 +2119,17 @@
       <c r="E13" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -2012,7 +2154,10 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -2043,7 +2188,10 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -2063,12 +2211,17 @@
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>8</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -2090,12 +2243,17 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5">
+        <v>8</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -2104,6 +2262,16 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2118,8 +2286,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2129,8 +2297,8 @@
     <col min="3" max="7" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15">
@@ -2185,8 +2353,12 @@
       <c r="Q1" s="6">
         <v>44991</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="R1" s="6">
+        <v>44992</v>
+      </c>
+      <c r="S1" s="6">
+        <v>45000</v>
+      </c>
       <c r="T1" s="11"/>
       <c r="U1" s="16" t="s">
         <v>2</v>
@@ -2197,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -2244,12 +2416,16 @@
       <c r="Q2" s="5">
         <v>15</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="R2" s="5">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5">
+        <v>-15</v>
+      </c>
       <c r="T2" s="11"/>
       <c r="U2" s="16">
         <f>SUM(L2:T2)</f>
-        <v>-30</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2257,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
@@ -2304,12 +2480,16 @@
       <c r="Q3" s="5">
         <v>15</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="5">
+        <v>10</v>
+      </c>
+      <c r="S3" s="5">
+        <v>10</v>
+      </c>
       <c r="T3" s="11"/>
       <c r="U3" s="16">
         <f t="shared" ref="U3:U13" si="0">SUM(L3:T3)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2317,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>4</v>
@@ -2364,12 +2544,16 @@
       <c r="Q4" s="5">
         <v>15</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="R4" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S4" s="5">
+        <v>-15</v>
+      </c>
       <c r="T4" s="11"/>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2377,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>5</v>
@@ -2424,12 +2608,16 @@
       <c r="Q5" s="5">
         <v>-10</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="R5" s="5">
+        <v>-15</v>
+      </c>
+      <c r="S5" s="5">
+        <v>-15</v>
+      </c>
       <c r="T5" s="11"/>
       <c r="U5" s="16">
         <f t="shared" si="0"/>
-        <v>-80</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2437,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>5</v>
@@ -2484,12 +2672,16 @@
       <c r="Q6" s="5">
         <v>15</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="R6" s="5">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5">
+        <v>-15</v>
+      </c>
       <c r="T6" s="11"/>
       <c r="U6" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2497,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
@@ -2518,7 +2710,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>5</v>
@@ -2544,12 +2736,16 @@
       <c r="Q7" s="5">
         <v>15</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="R7" s="5">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5">
+        <v>10</v>
+      </c>
       <c r="T7" s="11"/>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2557,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>4</v>
@@ -2578,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>4</v>
@@ -2604,12 +2800,16 @@
       <c r="Q8" s="5">
         <v>15</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="R8" s="5">
+        <v>10</v>
+      </c>
+      <c r="S8" s="5">
+        <v>10</v>
+      </c>
       <c r="T8" s="11"/>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2617,7 +2817,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -2664,12 +2864,16 @@
       <c r="Q9" s="5">
         <v>15</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="R9" s="5">
+        <v>10</v>
+      </c>
+      <c r="S9" s="5">
+        <v>-15</v>
+      </c>
       <c r="T9" s="11"/>
       <c r="U9" s="16">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2677,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>4</v>
@@ -2724,12 +2928,16 @@
       <c r="Q10" s="5">
         <v>15</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="R10" s="5">
+        <v>10</v>
+      </c>
+      <c r="S10" s="5">
+        <v>10</v>
+      </c>
       <c r="T10" s="11"/>
       <c r="U10" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2737,7 +2945,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>4</v>
@@ -2784,12 +2992,16 @@
       <c r="Q11" s="5">
         <v>15</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="R11" s="5">
+        <v>10</v>
+      </c>
+      <c r="S11" s="5">
+        <v>10</v>
+      </c>
       <c r="T11" s="11"/>
       <c r="U11" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2797,7 +3009,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>4</v>
@@ -2815,16 +3027,16 @@
         <v>4</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L12" s="5">
         <v>15</v>
@@ -2844,12 +3056,16 @@
       <c r="Q12" s="5">
         <v>15</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="R12" s="5">
+        <v>10</v>
+      </c>
+      <c r="S12" s="5">
+        <v>10</v>
+      </c>
       <c r="T12" s="11"/>
       <c r="U12" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2857,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>4</v>
@@ -2904,12 +3120,16 @@
       <c r="Q13" s="5">
         <v>15</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="R13" s="5">
+        <v>10</v>
+      </c>
+      <c r="S13" s="5">
+        <v>-15</v>
+      </c>
       <c r="T13" s="11"/>
       <c r="U13" s="16">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18.75" customHeight="1">
@@ -3021,7 +3241,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3089,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3118,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -3129,14 +3349,16 @@
       <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>10</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="11"/>
       <c r="K3" s="4">
         <f>SUM(C3:J3)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -3153,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3182,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3211,7 +3433,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
@@ -3242,7 +3464,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
@@ -3253,14 +3475,16 @@
       <c r="E7" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
       <c r="K7" s="4">
         <f>SUM(C7:J7)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -3277,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
@@ -3312,7 +3536,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3341,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
@@ -3352,14 +3576,16 @@
       <c r="E10" s="5">
         <v>10</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="11"/>
       <c r="K10" s="4">
         <f>SUM(C10:J10)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -3376,7 +3602,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
@@ -3409,7 +3635,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -3417,7 +3643,9 @@
       <c r="D12" s="4">
         <v>10</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -3425,7 +3653,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="4">
         <f>SUM(C12:J12)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -3442,7 +3670,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
@@ -3453,14 +3681,16 @@
       <c r="E13" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="11"/>
       <c r="K13" s="4">
         <f>SUM(C13:J13)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="525" documentId="11_249E9D72995A9022E8B78EE02997CA3E0DB7C500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14817D81-7043-4808-A5A0-AB49804F674D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" r:id="rId2"/>
-    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -42,7 +27,7 @@
     <t>Рейтинг</t>
   </si>
   <si>
-    <t>Будников Никита</t>
+    <t xml:space="preserve">Будников Никита</t>
   </si>
   <si>
     <t>+</t>
@@ -51,49 +36,49 @@
     <t>-</t>
   </si>
   <si>
-    <t>Воскобейников Даниил</t>
-  </si>
-  <si>
-    <t>Галицкая Каролина</t>
-  </si>
-  <si>
-    <t>Гоев Матвей</t>
-  </si>
-  <si>
-    <t>Добривечер Анастасия</t>
-  </si>
-  <si>
-    <t>Клеванец Петр</t>
-  </si>
-  <si>
-    <t>Клепалов Константин</t>
-  </si>
-  <si>
-    <t>Кончаков Максим</t>
-  </si>
-  <si>
-    <t>Корбан Владислав</t>
-  </si>
-  <si>
-    <t>Лапин Аркадий</t>
-  </si>
-  <si>
-    <t>Олейник Данила</t>
-  </si>
-  <si>
-    <t>Путилина Екатерина</t>
-  </si>
-  <si>
-    <t>Сальков Иван</t>
-  </si>
-  <si>
-    <t>Смородин Игнат</t>
-  </si>
-  <si>
-    <t>Шамшин Максим</t>
-  </si>
-  <si>
-    <t>Юрченко Дмитрий</t>
+    <t xml:space="preserve">Воскобейников Даниил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Галицкая Каролина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гоев Матвей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добривечер Анастасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клеванец Петр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клепалов Константин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кончаков Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корбан Владислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лапин Аркадий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Олейник Данила</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Путилина Екатерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сальков Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смородин Игнат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шамшин Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрченко Дмитрий</t>
   </si>
   <si>
     <t>База</t>
@@ -129,65 +114,65 @@
     <t>25-35</t>
   </si>
   <si>
-    <t>Бегун Анастасия</t>
-  </si>
-  <si>
-    <t>Буров Владислав</t>
-  </si>
-  <si>
-    <t>Вецан Дмитрий</t>
-  </si>
-  <si>
-    <t>Даниляк Михаил</t>
-  </si>
-  <si>
-    <t>Кван Максим</t>
-  </si>
-  <si>
-    <t>Кляченков Дмитрий</t>
+    <t xml:space="preserve">Бегун Анастасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буров Владислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вецан Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даниляк Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кван Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кляченков Дмитрий</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Крапивина Софья</t>
-  </si>
-  <si>
-    <t>Кузьменко Олег</t>
-  </si>
-  <si>
-    <t>Манаенков Александр</t>
-  </si>
-  <si>
-    <t>Черепков Ярослав</t>
-  </si>
-  <si>
-    <t>Шальнов Данил</t>
-  </si>
-  <si>
-    <t>Шевцов Никита</t>
+    <t xml:space="preserve">Крапивина Софья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кузьменко Олег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Манаенков Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Черепков Ярослав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шальнов Данил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шевцов Никита</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,149 +193,413 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,32 +802,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U17"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="U2" activeCellId="0" sqref="U2:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="21.85546875"/>
+    <col bestFit="1" customWidth="1" min="3" max="9" style="2" width="9.140625"/>
+    <col bestFit="1" customWidth="1" min="10" max="18" style="3" width="9.140625"/>
+    <col bestFit="1" customWidth="1" min="19" max="19" style="3" width="7.42578125"/>
+    <col bestFit="1" customWidth="1" min="20" max="20" style="3" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -615,7 +863,7 @@
       <c r="L1" s="6">
         <v>44973</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="7">
         <v>44977</v>
       </c>
       <c r="N1" s="6">
@@ -637,36 +885,36 @@
         <v>45001</v>
       </c>
       <c r="T1" s="6"/>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15">
-      <c r="A2" s="7">
+    <row r="2" ht="15">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -700,37 +948,37 @@
         <v>10</v>
       </c>
       <c r="T2" s="5"/>
-      <c r="U2" s="16">
-        <f>SUM(M2:T2)</f>
+      <c r="U2" s="8">
+        <f t="shared" ref="U2:U17" si="0">SUM(M2:T2)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15">
-      <c r="A3" s="7">
+    <row r="3" ht="15">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -764,37 +1012,37 @@
         <v>10</v>
       </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="16">
-        <f t="shared" ref="U3:U17" si="0">SUM(M3:T3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15">
-      <c r="A4" s="7">
+      <c r="U3" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -828,37 +1076,37 @@
         <v>10</v>
       </c>
       <c r="T4" s="5"/>
-      <c r="U4" s="16">
+      <c r="U4" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" ht="15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -892,37 +1140,37 @@
         <v>10</v>
       </c>
       <c r="T5" s="5"/>
-      <c r="U5" s="16">
+      <c r="U5" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="6" ht="15">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -956,37 +1204,37 @@
         <v>10</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="16">
+      <c r="U6" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
-      <c r="A7" s="7">
+    <row r="7" ht="15">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1020,37 +1268,37 @@
         <v>10</v>
       </c>
       <c r="T7" s="5"/>
-      <c r="U7" s="16">
+      <c r="U7" s="8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
-      <c r="A8" s="7">
+    <row r="8" ht="15">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -1084,37 +1332,37 @@
         <v>10</v>
       </c>
       <c r="T8" s="5"/>
-      <c r="U8" s="16">
+      <c r="U8" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
-      <c r="A9" s="7">
+    <row r="9" ht="15">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1148,37 +1396,37 @@
         <v>10</v>
       </c>
       <c r="T9" s="5"/>
-      <c r="U9" s="16">
+      <c r="U9" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
-      <c r="A10" s="7">
+    <row r="10" ht="15">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1212,37 +1460,37 @@
         <v>-15</v>
       </c>
       <c r="T10" s="5"/>
-      <c r="U10" s="16">
+      <c r="U10" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="11" ht="15">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1276,37 +1524,37 @@
         <v>10</v>
       </c>
       <c r="T11" s="5"/>
-      <c r="U11" s="16">
+      <c r="U11" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
-      <c r="A12" s="7">
+    <row r="12" ht="15">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1340,37 +1588,37 @@
         <v>10</v>
       </c>
       <c r="T12" s="5"/>
-      <c r="U12" s="16">
+      <c r="U12" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
-      <c r="A13" s="7">
+    <row r="13" ht="15">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -1404,37 +1652,37 @@
         <v>10</v>
       </c>
       <c r="T13" s="5"/>
-      <c r="U13" s="16">
+      <c r="U13" s="8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
-      <c r="A14" s="7">
+    <row r="14" ht="15">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
@@ -1468,37 +1716,37 @@
         <v>10</v>
       </c>
       <c r="T14" s="5"/>
-      <c r="U14" s="16">
+      <c r="U14" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
-      <c r="A15" s="7">
+    <row r="15" ht="15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="C15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -1532,37 +1780,37 @@
         <v>-15</v>
       </c>
       <c r="T15" s="5"/>
-      <c r="U15" s="16">
+      <c r="U15" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="16" ht="15">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="C16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -1596,37 +1844,37 @@
         <v>10</v>
       </c>
       <c r="T16" s="5"/>
-      <c r="U16" s="16">
+      <c r="U16" s="8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15">
-      <c r="A17" s="7">
+    <row r="17" ht="15">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="C17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -1660,61 +1908,87 @@
         <v>10</v>
       </c>
       <c r="T17" s="5"/>
-      <c r="U17" s="16">
+      <c r="U17" s="8">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U2:U17">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U17">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U17">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00740097-00D4-4D14-8102-002C00CC0090}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U2:U17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{001800A1-0075-41B6-86CA-00DB004F00DE}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U2:U17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D200B4-0029-4E2E-8703-00B6001B0030}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U2:U17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="R10" activeCellId="0" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="3.28515625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="23.140625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="12" width="5.28515625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="3" width="9.42578125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="3" width="8.28515625"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="3" width="6.7109375"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="3" width="7.7109375"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="3" width="5.7109375"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="3" width="7.85546875"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" style="3" width="7.5703125"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" style="3" width="5.140625"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" style="3" width="9.85546875"/>
+    <col bestFit="1" customWidth="1" min="13" max="19" style="3" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1742,26 +2016,26 @@
       <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" ht="15">
-      <c r="A2" s="7">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" ht="15">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4">
@@ -1779,25 +2053,25 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="4">
-        <f>SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K17" si="1">SUM(C2:J2)</f>
         <v>40</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="7">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" ht="15">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
@@ -1807,25 +2081,25 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K17" si="0">SUM(C3:J3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="7">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" ht="15">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4">
@@ -1839,25 +2113,25 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" ht="15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4"/>
@@ -1867,25 +2141,25 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" ht="15">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
@@ -1901,25 +2175,25 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" ht="15">
-      <c r="A7" s="7">
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" ht="15">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4"/>
@@ -1931,25 +2205,25 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" ht="15">
-      <c r="A8" s="7">
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" ht="15">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
@@ -1965,25 +2239,25 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" ht="15">
-      <c r="A9" s="7">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" ht="15">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4">
@@ -1995,25 +2269,25 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" ht="15">
-      <c r="A10" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" ht="15">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4"/>
@@ -2023,25 +2297,25 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" ht="15">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" ht="15">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="4">
@@ -2057,25 +2331,25 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" ht="15">
-      <c r="A12" s="7">
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" ht="15">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4">
@@ -2089,25 +2363,25 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="7">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" ht="15">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="4">
@@ -2125,25 +2399,25 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" ht="15">
-      <c r="A14" s="7">
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" ht="15">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4"/>
@@ -2153,25 +2427,25 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="7">
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" ht="15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4">
@@ -2187,25 +2461,25 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" ht="15">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" ht="15">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="4"/>
@@ -2217,25 +2491,25 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="1:19" ht="15">
-      <c r="A17" s="7">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" ht="15">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="4">
@@ -2249,59 +2523,63 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="20">
       <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21">
       <c r="F21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="U16" activeCellId="0" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="15" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="20.85546875"/>
+    <col bestFit="1" customWidth="1" min="3" max="7" style="2" width="6.42578125"/>
+    <col bestFit="1" customWidth="1" min="8" max="9" style="2" width="7.28515625"/>
+    <col bestFit="1" customWidth="1" min="10" max="15" style="3" width="7.28515625"/>
+    <col bestFit="1" customWidth="1" min="16" max="18" style="3" width="7.42578125"/>
+    <col bestFit="1" customWidth="1" min="19" max="20" style="3" width="6.8515625"/>
+    <col min="21" max="25" style="3" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2613,7 @@
       <c r="K1" s="6">
         <v>44971</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="7">
         <v>44977</v>
       </c>
       <c r="M1" s="6">
@@ -2356,40 +2634,49 @@
       <c r="R1" s="6">
         <v>44992</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="16">
         <v>45000</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="17">
+        <v>45006</v>
+      </c>
+      <c r="U1" s="18">
+        <v>45007</v>
+      </c>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="7">
+    <row r="2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -2419,41 +2706,50 @@
       <c r="R2" s="5">
         <v>10</v>
       </c>
-      <c r="S2" s="5">
-        <v>-15</v>
-      </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="16">
-        <f>SUM(L2:T2)</f>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="7">
+      <c r="S2" s="13">
+        <v>-15</v>
+      </c>
+      <c r="T2" s="20">
+        <v>-15</v>
+      </c>
+      <c r="U2" s="19">
+        <v>-15</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19">
+        <f>SUM(L2:Y2)</f>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -2483,41 +2779,50 @@
       <c r="R3" s="5">
         <v>10</v>
       </c>
-      <c r="S3" s="5">
-        <v>10</v>
-      </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="16">
-        <f t="shared" ref="U3:U13" si="0">SUM(L3:T3)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="7">
+      <c r="S3" s="13">
+        <v>10</v>
+      </c>
+      <c r="T3" s="20">
+        <v>10</v>
+      </c>
+      <c r="U3" s="19">
+        <v>10</v>
+      </c>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19">
+        <f>SUM(L3:Y3)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -2547,41 +2852,50 @@
       <c r="R4" s="5">
         <v>-15</v>
       </c>
-      <c r="S4" s="5">
-        <v>-15</v>
-      </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="16">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="S4" s="13">
+        <v>-15</v>
+      </c>
+      <c r="T4" s="20">
+        <v>-15</v>
+      </c>
+      <c r="U4" s="19">
+        <v>10</v>
+      </c>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19">
+        <f>SUM(L4:Y4)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -2611,41 +2925,50 @@
       <c r="R5" s="5">
         <v>-15</v>
       </c>
-      <c r="S5" s="5">
-        <v>-15</v>
-      </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="16">
-        <f t="shared" si="0"/>
-        <v>-110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="S5" s="13">
+        <v>-15</v>
+      </c>
+      <c r="T5" s="20">
+        <v>-15</v>
+      </c>
+      <c r="U5" s="19">
+        <v>-15</v>
+      </c>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19">
+        <f>SUM(L5:Y5)</f>
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -2675,169 +2998,196 @@
       <c r="R6" s="5">
         <v>10</v>
       </c>
-      <c r="S6" s="5">
-        <v>-15</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="16">
-        <f t="shared" si="0"/>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="20">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <v>10</v>
+      </c>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19">
+        <f>SUM(L6:Y6)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5">
+        <v>15</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5">
+        <v>10</v>
+      </c>
+      <c r="O7" s="5">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>15</v>
+      </c>
+      <c r="R7" s="5">
+        <v>10</v>
+      </c>
+      <c r="S7" s="13">
+        <v>10</v>
+      </c>
+      <c r="T7" s="20">
+        <v>10</v>
+      </c>
+      <c r="U7" s="19">
+        <v>10</v>
+      </c>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19">
+        <f>SUM(L7:Y7)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>15</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5">
+        <v>10</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>15</v>
+      </c>
+      <c r="R8" s="5">
+        <v>10</v>
+      </c>
+      <c r="S8" s="13">
+        <v>10</v>
+      </c>
+      <c r="T8" s="20">
+        <v>10</v>
+      </c>
+      <c r="U8" s="19">
+        <v>-15</v>
+      </c>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19">
+        <f>SUM(L8:Y8)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5">
-        <v>15</v>
-      </c>
-      <c r="M7" s="5">
-        <v>10</v>
-      </c>
-      <c r="N7" s="5">
-        <v>10</v>
-      </c>
-      <c r="O7" s="5">
-        <v>10</v>
-      </c>
-      <c r="P7" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>15</v>
-      </c>
-      <c r="R7" s="5">
-        <v>10</v>
-      </c>
-      <c r="S7" s="5">
-        <v>10</v>
-      </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="16">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="5">
-        <v>15</v>
-      </c>
-      <c r="M8" s="5">
-        <v>10</v>
-      </c>
-      <c r="N8" s="5">
-        <v>10</v>
-      </c>
-      <c r="O8" s="5">
-        <v>10</v>
-      </c>
-      <c r="P8" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>15</v>
-      </c>
-      <c r="R8" s="5">
-        <v>10</v>
-      </c>
-      <c r="S8" s="5">
-        <v>10</v>
-      </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="16">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -2867,41 +3217,50 @@
       <c r="R9" s="5">
         <v>10</v>
       </c>
-      <c r="S9" s="5">
-        <v>-15</v>
-      </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="16">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="7">
+      <c r="S9" s="13">
+        <v>-15</v>
+      </c>
+      <c r="T9" s="20">
+        <v>-15</v>
+      </c>
+      <c r="U9" s="19">
+        <v>-15</v>
+      </c>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
+        <f>SUM(L9:Y9)</f>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -2931,41 +3290,50 @@
       <c r="R10" s="5">
         <v>10</v>
       </c>
-      <c r="S10" s="5">
-        <v>10</v>
-      </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="16">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="S10" s="13">
+        <v>10</v>
+      </c>
+      <c r="T10" s="20">
+        <v>10</v>
+      </c>
+      <c r="U10" s="19">
+        <v>10</v>
+      </c>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19">
+        <f>SUM(L10:Y10)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -2995,41 +3363,50 @@
       <c r="R11" s="5">
         <v>10</v>
       </c>
-      <c r="S11" s="5">
-        <v>10</v>
-      </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="16">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="7">
+      <c r="S11" s="13">
+        <v>10</v>
+      </c>
+      <c r="T11" s="20">
+        <v>-15</v>
+      </c>
+      <c r="U11" s="19">
+        <v>10</v>
+      </c>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19">
+        <f>SUM(L11:Y11)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -3059,41 +3436,50 @@
       <c r="R12" s="5">
         <v>10</v>
       </c>
-      <c r="S12" s="5">
-        <v>10</v>
-      </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="16">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="7">
+      <c r="S12" s="13">
+        <v>10</v>
+      </c>
+      <c r="T12" s="20">
+        <v>10</v>
+      </c>
+      <c r="U12" s="19">
+        <v>10</v>
+      </c>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19">
+        <f>SUM(L12:Y12)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -3123,144 +3509,179 @@
       <c r="R13" s="5">
         <v>10</v>
       </c>
-      <c r="S13" s="5">
-        <v>-15</v>
-      </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="16">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="3:20" ht="18.75" customHeight="1">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="S13" s="13">
+        <v>-15</v>
+      </c>
+      <c r="T13" s="20">
+        <v>10</v>
+      </c>
+      <c r="U13" s="19">
+        <v>10</v>
+      </c>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19">
+        <f>SUM(L13:Y13)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U2:U13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00B0004D-00F1-40A6-A5C9-00DF004D00A6}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{008400FA-0074-42BB-88B9-004A006B0095}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006600DF-007C-4600-AD7D-004000DC0004}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="20.85546875"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="12" width="4.7109375"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="12" width="8.85546875"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="3" width="7.85546875"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="3" width="6.28515625"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="3" width="7"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="3" width="5.28515625"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="3" width="7.28515625"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" style="3" width="7.140625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" style="12" width="4.7109375"/>
+    <col bestFit="1" customWidth="1" min="12" max="20" style="3" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3288,27 +3709,27 @@
       <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="7">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="4"/>
@@ -3318,26 +3739,26 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="4">
-        <f>SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K9" si="2">SUM(C2:J2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="7">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="4">
@@ -3352,29 +3773,31 @@
       <c r="F3" s="5">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="4">
-        <f>SUM(C3:J3)</f>
-        <v>40</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="4"/>
@@ -3384,26 +3807,26 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="4">
-        <f>SUM(C4:J4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="4"/>
@@ -3413,26 +3836,26 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="4">
-        <f>SUM(C5:J5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="4">
@@ -3444,26 +3867,26 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="4">
-        <f>SUM(C6:J6)</f>
-        <v>10</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="4">
@@ -3478,29 +3901,31 @@
       <c r="F7" s="5">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="4">
-        <f>SUM(C7:J7)</f>
-        <v>40</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="4">
@@ -3516,26 +3941,26 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="4">
-        <f>SUM(C8:J8)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="7">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="4"/>
@@ -3545,26 +3970,26 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="4">
-        <f>SUM(C9:J9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="7">
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="4">
@@ -3579,29 +4004,31 @@
       <c r="F10" s="5">
         <v>10</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="4">
-        <f>SUM(C10:J10)</f>
-        <v>40</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <f t="shared" ref="K10:K13" si="3">SUM(C10:J10)</f>
+        <v>50</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="4">
@@ -3615,26 +4042,26 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="4">
-        <f>SUM(C11:J11)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="7">
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="4">
@@ -3650,26 +4077,26 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="4">
-        <f>SUM(C12:J12)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="7">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="4">
@@ -3684,26 +4111,30 @@
       <c r="F13" s="5">
         <v>10</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="4">
-        <f>SUM(C13:J13)</f>
-        <v>40</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -106,12 +106,6 @@
   </si>
   <si>
     <t>Итог</t>
-  </si>
-  <si>
-    <t>15-25</t>
-  </si>
-  <si>
-    <t>25-35</t>
   </si>
   <si>
     <t xml:space="preserve">Бегун Анастасия</t>
@@ -1922,7 +1916,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00740097-00D4-4D14-8102-002C00CC0090}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{007700DE-0073-4671-999C-00FA001C002F}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1933,7 +1927,7 @@
           <xm:sqref>U2:U17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{001800A1-0075-41B6-86CA-00DB004F00DE}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{006B0053-0019-453D-AD10-001600440091}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1944,7 +1938,7 @@
           <xm:sqref>U2:U17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D200B4-0029-4E2E-8703-00B6001B0030}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004100F8-00DA-4446-943D-005C001F003F}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -2290,7 +2284,9 @@
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2300,7 +2296,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -2355,7 +2351,9 @@
       <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
         <v>8</v>
@@ -2366,7 +2364,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -2515,7 +2513,9 @@
       <c r="C17" s="4">
         <v>10</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>8</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
         <v>8</v>
@@ -2526,7 +2526,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -2538,14 +2538,10 @@
       <c r="S17" s="14"/>
     </row>
     <row r="20">
-      <c r="F20" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21">
-      <c r="F21" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -2656,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2720,7 +2716,7 @@
       <c r="X2" s="19"/>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19">
-        <f>SUM(L2:Y2)</f>
+        <f t="shared" ref="Z2:Z9" si="2">SUM(L2:Y2)</f>
         <v>-65</v>
       </c>
     </row>
@@ -2729,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>4</v>
@@ -2793,7 +2789,7 @@
       <c r="X3" s="19"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19">
-        <f>SUM(L3:Y3)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
     </row>
@@ -2802,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>4</v>
@@ -2866,7 +2862,7 @@
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
       <c r="Z4" s="19">
-        <f>SUM(L4:Y4)</f>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
     </row>
@@ -2875,7 +2871,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
@@ -2939,7 +2935,7 @@
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="19">
-        <f>SUM(L5:Y5)</f>
+        <f t="shared" si="2"/>
         <v>-140</v>
       </c>
     </row>
@@ -2948,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>5</v>
@@ -3012,7 +3008,7 @@
       <c r="X6" s="19"/>
       <c r="Y6" s="19"/>
       <c r="Z6" s="19">
-        <f>SUM(L6:Y6)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
@@ -3021,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>4</v>
@@ -3042,7 +3038,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>5</v>
@@ -3085,7 +3081,7 @@
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="19">
-        <f>SUM(L7:Y7)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
     </row>
@@ -3094,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>4</v>
@@ -3115,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>4</v>
@@ -3158,7 +3154,7 @@
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19">
-        <f>SUM(L8:Y8)</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
@@ -3167,7 +3163,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -3231,7 +3227,7 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19">
-        <f>SUM(L9:Y9)</f>
+        <f t="shared" si="2"/>
         <v>-65</v>
       </c>
     </row>
@@ -3240,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>4</v>
@@ -3304,7 +3300,7 @@
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19">
-        <f>SUM(L10:Y10)</f>
+        <f t="shared" ref="Z10:Z13" si="3">SUM(L10:Y10)</f>
         <v>75</v>
       </c>
     </row>
@@ -3313,7 +3309,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>4</v>
@@ -3377,7 +3373,7 @@
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19">
-        <f>SUM(L11:Y11)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3386,7 +3382,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>4</v>
@@ -3404,16 +3400,16 @@
         <v>4</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L12" s="5">
         <v>15</v>
@@ -3450,7 +3446,7 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19">
-        <f>SUM(L12:Y12)</f>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
@@ -3459,7 +3455,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>4</v>
@@ -3523,7 +3519,7 @@
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19">
-        <f>SUM(L13:Y13)</f>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
@@ -3616,7 +3612,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00B0004D-00F1-40A6-A5C9-00DF004D00A6}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00C3000B-0022-47E9-93D5-000E001700E9}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3627,7 +3623,7 @@
           <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{008400FA-0074-42BB-88B9-004A006B0095}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{00BC001D-0042-4135-9C59-0084003A00B6}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3638,7 +3634,7 @@
           <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006600DF-007C-4600-AD7D-004000DC0004}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007D0092-00EC-4270-8882-00A900B900C1}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3730,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3741,7 +3737,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="13"/>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K9" si="2">SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K9" si="4">SUM(C2:J2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="14"/>
@@ -3759,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -3780,7 +3776,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="13"/>
       <c r="K3" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="L3" s="14"/>
@@ -3798,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3809,7 +3805,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="13"/>
       <c r="K4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L4" s="14"/>
@@ -3827,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3838,7 +3834,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="13"/>
       <c r="K5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L5" s="14"/>
@@ -3856,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
@@ -3869,7 +3865,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L6" s="14"/>
@@ -3887,7 +3883,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
@@ -3908,7 +3904,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="13"/>
       <c r="K7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="L7" s="14"/>
@@ -3926,7 +3922,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
@@ -3943,7 +3939,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="13"/>
       <c r="K8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="L8" s="14"/>
@@ -3961,7 +3957,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3972,7 +3968,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="13"/>
       <c r="K9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9" s="14"/>
@@ -3990,7 +3986,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
@@ -4011,7 +4007,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="13"/>
       <c r="K10" s="4">
-        <f t="shared" ref="K10:K13" si="3">SUM(C10:J10)</f>
+        <f t="shared" ref="K10:K13" si="5">SUM(C10:J10)</f>
         <v>50</v>
       </c>
       <c r="L10" s="14"/>
@@ -4029,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
@@ -4044,7 +4040,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="13"/>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="L11" s="14"/>
@@ -4062,7 +4058,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -4079,7 +4075,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="13"/>
       <c r="K12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L12" s="14"/>
@@ -4097,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
@@ -4118,7 +4114,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="13"/>
       <c r="K13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="L13" s="14"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
@@ -878,7 +878,9 @@
       <c r="S1" s="6">
         <v>45001</v>
       </c>
-      <c r="T1" s="6"/>
+      <c r="T1" s="6">
+        <v>45015</v>
+      </c>
       <c r="U1" s="8" t="s">
         <v>2</v>
       </c>
@@ -941,10 +943,12 @@
       <c r="S2" s="5">
         <v>10</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="T2" s="5">
+        <v>10</v>
+      </c>
       <c r="U2" s="8">
         <f t="shared" ref="U2:U17" si="0">SUM(M2:T2)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15">
@@ -1005,10 +1009,12 @@
       <c r="S3" s="5">
         <v>10</v>
       </c>
-      <c r="T3" s="5"/>
+      <c r="T3" s="5">
+        <v>-15</v>
+      </c>
       <c r="U3" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4" ht="15">
@@ -1069,10 +1075,12 @@
       <c r="S4" s="5">
         <v>10</v>
       </c>
-      <c r="T4" s="5"/>
+      <c r="T4" s="5">
+        <v>-15</v>
+      </c>
       <c r="U4" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="15">
@@ -1133,10 +1141,12 @@
       <c r="S5" s="5">
         <v>10</v>
       </c>
-      <c r="T5" s="5"/>
+      <c r="T5" s="5">
+        <v>-15</v>
+      </c>
       <c r="U5" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6" ht="15">
@@ -1197,10 +1207,12 @@
       <c r="S6" s="5">
         <v>10</v>
       </c>
-      <c r="T6" s="5"/>
+      <c r="T6" s="5">
+        <v>10</v>
+      </c>
       <c r="U6" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15">
@@ -1261,10 +1273,12 @@
       <c r="S7" s="5">
         <v>10</v>
       </c>
-      <c r="T7" s="5"/>
+      <c r="T7" s="5">
+        <v>-15</v>
+      </c>
       <c r="U7" s="8">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="15">
@@ -1325,10 +1339,12 @@
       <c r="S8" s="5">
         <v>10</v>
       </c>
-      <c r="T8" s="5"/>
+      <c r="T8" s="5">
+        <v>10</v>
+      </c>
       <c r="U8" s="8">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="15">
@@ -1389,10 +1405,12 @@
       <c r="S9" s="5">
         <v>10</v>
       </c>
-      <c r="T9" s="5"/>
+      <c r="T9" s="5">
+        <v>10</v>
+      </c>
       <c r="U9" s="8">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="15">
@@ -1453,10 +1471,12 @@
       <c r="S10" s="5">
         <v>-15</v>
       </c>
-      <c r="T10" s="5"/>
+      <c r="T10" s="5">
+        <v>10</v>
+      </c>
       <c r="U10" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="15">
@@ -1517,10 +1537,12 @@
       <c r="S11" s="5">
         <v>10</v>
       </c>
-      <c r="T11" s="5"/>
+      <c r="T11" s="5">
+        <v>10</v>
+      </c>
       <c r="U11" s="8">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="15">
@@ -1581,10 +1603,12 @@
       <c r="S12" s="5">
         <v>10</v>
       </c>
-      <c r="T12" s="5"/>
+      <c r="T12" s="5">
+        <v>10</v>
+      </c>
       <c r="U12" s="8">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" ht="15">
@@ -1645,10 +1669,12 @@
       <c r="S13" s="5">
         <v>10</v>
       </c>
-      <c r="T13" s="5"/>
+      <c r="T13" s="5">
+        <v>10</v>
+      </c>
       <c r="U13" s="8">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="15">
@@ -1709,10 +1735,12 @@
       <c r="S14" s="5">
         <v>10</v>
       </c>
-      <c r="T14" s="5"/>
+      <c r="T14" s="5">
+        <v>-15</v>
+      </c>
       <c r="U14" s="8">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="15">
@@ -1773,10 +1801,12 @@
       <c r="S15" s="5">
         <v>-15</v>
       </c>
-      <c r="T15" s="5"/>
+      <c r="T15" s="5">
+        <v>10</v>
+      </c>
       <c r="U15" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="15">
@@ -1837,10 +1867,12 @@
       <c r="S16" s="5">
         <v>10</v>
       </c>
-      <c r="T16" s="5"/>
+      <c r="T16" s="5">
+        <v>-15</v>
+      </c>
       <c r="U16" s="8">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="15">
@@ -1901,10 +1933,12 @@
       <c r="S17" s="5">
         <v>10</v>
       </c>
-      <c r="T17" s="5"/>
+      <c r="T17" s="5">
+        <v>10</v>
+      </c>
       <c r="U17" s="8">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +1950,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{007700DE-0073-4671-999C-00FA001C002F}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00120097-009E-4DD3-82E2-004600B5008D}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1927,7 +1961,7 @@
           <xm:sqref>U2:U17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{006B0053-0019-453D-AD10-001600440091}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{0069008B-0000-4C4C-9B41-00EC0083001B}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1938,7 +1972,7 @@
           <xm:sqref>U2:U17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004100F8-00DA-4446-943D-005C001F003F}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A50069-0090-4F37-95BE-00FE00940000}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -2323,14 +2357,16 @@
       <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="13"/>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -2354,7 +2390,9 @@
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
       <c r="F12" s="5">
         <v>8</v>
       </c>
@@ -2364,7 +2402,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -2516,7 +2554,9 @@
       <c r="D17" s="5">
         <v>8</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
       <c r="F17" s="5">
         <v>8</v>
       </c>
@@ -2526,7 +2566,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -3612,7 +3652,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00C3000B-0022-47E9-93D5-000E001700E9}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00B30062-0013-4C28-AE02-001A0033004C}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3623,7 +3663,7 @@
           <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{00BC001D-0042-4135-9C59-0084003A00B6}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{007500AB-00A2-4395-8161-00A300BE00B5}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3634,7 +3674,7 @@
           <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007D0092-00EC-4270-8882-00A900B900C1}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004300FC-002A-435C-B36A-0040002A0015}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -255,6 +255,7 @@
     <xf fontId="2" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,36 +882,39 @@
       <c r="T1" s="6">
         <v>45015</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="8">
+        <v>45015</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -946,37 +950,40 @@
       <c r="T2" s="5">
         <v>10</v>
       </c>
-      <c r="U2" s="8">
-        <f t="shared" ref="U2:U17" si="0">SUM(M2:T2)</f>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2" s="9">
+        <f>SUM(M2:T2)</f>
         <v>90</v>
       </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1012,37 +1019,40 @@
       <c r="T3" s="5">
         <v>-15</v>
       </c>
-      <c r="U3" s="8">
-        <f t="shared" si="0"/>
+      <c r="U3">
+        <v>-15</v>
+      </c>
+      <c r="V3" s="9">
+        <f>SUM(M3:T3)</f>
         <v>-10</v>
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -1078,37 +1088,40 @@
       <c r="T4" s="5">
         <v>-15</v>
       </c>
-      <c r="U4" s="8">
-        <f t="shared" si="0"/>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4" s="9">
+        <f>SUM(M4:T4)</f>
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1144,37 +1157,40 @@
       <c r="T5" s="5">
         <v>-15</v>
       </c>
-      <c r="U5" s="8">
-        <f t="shared" si="0"/>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5" s="9">
+        <f>SUM(M5:T5)</f>
         <v>-10</v>
       </c>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1210,37 +1226,40 @@
       <c r="T6" s="5">
         <v>10</v>
       </c>
-      <c r="U6" s="8">
-        <f t="shared" si="0"/>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6" s="9">
+        <f>SUM(M6:T6)</f>
         <v>70</v>
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1276,37 +1295,40 @@
       <c r="T7" s="5">
         <v>-15</v>
       </c>
-      <c r="U7" s="8">
-        <f t="shared" si="0"/>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7" s="9">
+        <f>SUM(M7:T7)</f>
         <v>65</v>
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -1342,37 +1364,40 @@
       <c r="T8" s="5">
         <v>10</v>
       </c>
-      <c r="U8" s="8">
-        <f t="shared" si="0"/>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8" s="9">
+        <f>SUM(M8:T8)</f>
         <v>65</v>
       </c>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1408,37 +1433,40 @@
       <c r="T9" s="5">
         <v>10</v>
       </c>
-      <c r="U9" s="8">
-        <f t="shared" si="0"/>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9" s="9">
+        <f>SUM(M9:T9)</f>
         <v>65</v>
       </c>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1474,37 +1502,40 @@
       <c r="T10" s="5">
         <v>10</v>
       </c>
-      <c r="U10" s="8">
-        <f t="shared" si="0"/>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10" s="9">
+        <f>SUM(M10:T10)</f>
         <v>40</v>
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1540,37 +1571,40 @@
       <c r="T11" s="5">
         <v>10</v>
       </c>
-      <c r="U11" s="8">
-        <f t="shared" si="0"/>
+      <c r="U11">
+        <v>-15</v>
+      </c>
+      <c r="V11" s="9">
+        <f>SUM(M11:T11)</f>
         <v>65</v>
       </c>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1606,37 +1640,40 @@
       <c r="T12" s="5">
         <v>10</v>
       </c>
-      <c r="U12" s="8">
-        <f t="shared" si="0"/>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12" s="9">
+        <f>SUM(M12:T12)</f>
         <v>65</v>
       </c>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -1672,37 +1709,40 @@
       <c r="T13" s="5">
         <v>10</v>
       </c>
-      <c r="U13" s="8">
-        <f t="shared" si="0"/>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13" s="9">
+        <f>SUM(M13:T13)</f>
         <v>90</v>
       </c>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
@@ -1738,37 +1778,40 @@
       <c r="T14" s="5">
         <v>-15</v>
       </c>
-      <c r="U14" s="8">
-        <f t="shared" si="0"/>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14" s="9">
+        <f>SUM(M14:T14)</f>
         <v>40</v>
       </c>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -1804,37 +1847,40 @@
       <c r="T15" s="5">
         <v>10</v>
       </c>
-      <c r="U15" s="8">
-        <f t="shared" si="0"/>
+      <c r="U15">
+        <v>-15</v>
+      </c>
+      <c r="V15" s="9">
+        <f>SUM(M15:T15)</f>
         <v>15</v>
       </c>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -1870,37 +1916,40 @@
       <c r="T16" s="5">
         <v>-15</v>
       </c>
-      <c r="U16" s="8">
-        <f t="shared" si="0"/>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16" s="9">
+        <f>SUM(M16:T16)</f>
         <v>65</v>
       </c>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -1936,8 +1985,11 @@
       <c r="T17" s="5">
         <v>10</v>
       </c>
-      <c r="U17" s="8">
-        <f t="shared" si="0"/>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17" s="9">
+        <f>SUM(M17:T17)</f>
         <v>-10</v>
       </c>
     </row>
@@ -1950,7 +2002,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00120097-009E-4DD3-82E2-004600B5008D}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{008A0087-00BF-4F1B-9B45-00CB00920047}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1958,10 +2010,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U2:U17</xm:sqref>
+          <xm:sqref>V2:V17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{0069008B-0000-4C4C-9B41-00EC0083001B}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{009D0059-0022-4342-8E84-008F006C0020}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1969,10 +2021,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U2:U17</xm:sqref>
+          <xm:sqref>V2:V17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A50069-0090-4F37-95BE-00FE00940000}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B900CB-00E2-4C36-A030-0065006700C5}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1980,7 +2032,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U2:U17</xm:sqref>
+          <xm:sqref>V2:V17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2003,7 +2055,7 @@
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="3.28515625"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="23.140625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="12" width="5.28515625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="13" width="5.28515625"/>
     <col bestFit="1" customWidth="1" min="4" max="4" style="3" width="9.42578125"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="3" width="8.28515625"/>
     <col bestFit="1" customWidth="1" min="6" max="6" style="3" width="6.7109375"/>
@@ -2044,26 +2096,26 @@
       <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4">
@@ -2081,25 +2133,25 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K17" si="1">SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K17" si="0">SUM(C2:J2)</f>
         <v>40</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
@@ -2109,25 +2161,25 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4">
@@ -2141,53 +2193,55 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
@@ -2203,29 +2257,31 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
         <v>8</v>
@@ -2233,25 +2289,25 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
@@ -2267,25 +2323,25 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4">
@@ -2297,25 +2353,25 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4">
@@ -2327,25 +2383,25 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="4">
@@ -2363,25 +2419,25 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4">
@@ -2399,25 +2455,25 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="4">
@@ -2435,53 +2491,55 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4">
@@ -2497,29 +2555,31 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
         <v>8</v>
@@ -2527,25 +2587,25 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="4">
@@ -2563,19 +2623,19 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
     </row>
     <row r="20">
       <c r="F20" s="3"/>
@@ -2605,7 +2665,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="15" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="16" width="2.85546875"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="20.85546875"/>
     <col bestFit="1" customWidth="1" min="3" max="7" style="2" width="6.42578125"/>
     <col bestFit="1" customWidth="1" min="8" max="9" style="2" width="7.28515625"/>
@@ -2670,49 +2730,49 @@
       <c r="R1" s="6">
         <v>44992</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="17">
         <v>45000</v>
       </c>
-      <c r="T1" s="17">
+      <c r="T1" s="18">
         <v>45006</v>
       </c>
-      <c r="U1" s="18">
+      <c r="U1" s="19">
         <v>45007</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -2742,50 +2802,50 @@
       <c r="R2" s="5">
         <v>10</v>
       </c>
-      <c r="S2" s="13">
-        <v>-15</v>
-      </c>
-      <c r="T2" s="20">
-        <v>-15</v>
-      </c>
-      <c r="U2" s="19">
-        <v>-15</v>
-      </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19">
-        <f t="shared" ref="Z2:Z9" si="2">SUM(L2:Y2)</f>
+      <c r="S2" s="14">
+        <v>-15</v>
+      </c>
+      <c r="T2" s="21">
+        <v>-15</v>
+      </c>
+      <c r="U2" s="20">
+        <v>-15</v>
+      </c>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20">
+        <f t="shared" ref="Z2:Z9" si="1">SUM(L2:Y2)</f>
         <v>-65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -2815,50 +2875,50 @@
       <c r="R3" s="5">
         <v>10</v>
       </c>
-      <c r="S3" s="13">
-        <v>10</v>
-      </c>
-      <c r="T3" s="20">
-        <v>10</v>
-      </c>
-      <c r="U3" s="19">
-        <v>10</v>
-      </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19">
-        <f t="shared" si="2"/>
+      <c r="S3" s="14">
+        <v>10</v>
+      </c>
+      <c r="T3" s="21">
+        <v>10</v>
+      </c>
+      <c r="U3" s="20">
+        <v>10</v>
+      </c>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -2888,50 +2948,50 @@
       <c r="R4" s="5">
         <v>-15</v>
       </c>
-      <c r="S4" s="13">
-        <v>-15</v>
-      </c>
-      <c r="T4" s="20">
-        <v>-15</v>
-      </c>
-      <c r="U4" s="19">
-        <v>10</v>
-      </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19">
-        <f t="shared" si="2"/>
+      <c r="S4" s="14">
+        <v>-15</v>
+      </c>
+      <c r="T4" s="21">
+        <v>-15</v>
+      </c>
+      <c r="U4" s="20">
+        <v>10</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20">
+        <f t="shared" si="1"/>
         <v>-40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -2961,687 +3021,687 @@
       <c r="R5" s="5">
         <v>-15</v>
       </c>
-      <c r="S5" s="13">
-        <v>-15</v>
-      </c>
-      <c r="T5" s="20">
-        <v>-15</v>
-      </c>
-      <c r="U5" s="19">
-        <v>-15</v>
-      </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19">
+      <c r="S5" s="14">
+        <v>-15</v>
+      </c>
+      <c r="T5" s="21">
+        <v>-15</v>
+      </c>
+      <c r="U5" s="20">
+        <v>-15</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20">
+        <f t="shared" si="1"/>
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>15</v>
+      </c>
+      <c r="M6" s="5">
+        <v>-15</v>
+      </c>
+      <c r="N6" s="5">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5">
+        <v>10</v>
+      </c>
+      <c r="P6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>15</v>
+      </c>
+      <c r="R6" s="5">
+        <v>10</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
+        <v>10</v>
+      </c>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5">
+        <v>15</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5">
+        <v>10</v>
+      </c>
+      <c r="O7" s="5">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>15</v>
+      </c>
+      <c r="R7" s="5">
+        <v>10</v>
+      </c>
+      <c r="S7" s="14">
+        <v>10</v>
+      </c>
+      <c r="T7" s="21">
+        <v>10</v>
+      </c>
+      <c r="U7" s="20">
+        <v>10</v>
+      </c>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>15</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5">
+        <v>10</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>15</v>
+      </c>
+      <c r="R8" s="5">
+        <v>10</v>
+      </c>
+      <c r="S8" s="14">
+        <v>10</v>
+      </c>
+      <c r="T8" s="21">
+        <v>10</v>
+      </c>
+      <c r="U8" s="20">
+        <v>-15</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="5">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-15</v>
+      </c>
+      <c r="N9" s="5">
+        <v>-15</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-15</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-15</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>15</v>
+      </c>
+      <c r="R9" s="5">
+        <v>10</v>
+      </c>
+      <c r="S9" s="14">
+        <v>-15</v>
+      </c>
+      <c r="T9" s="21">
+        <v>-15</v>
+      </c>
+      <c r="U9" s="20">
+        <v>-15</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
+        <f t="shared" si="1"/>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>10</v>
+      </c>
+      <c r="P10" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>15</v>
+      </c>
+      <c r="R10" s="5">
+        <v>10</v>
+      </c>
+      <c r="S10" s="14">
+        <v>10</v>
+      </c>
+      <c r="T10" s="21">
+        <v>10</v>
+      </c>
+      <c r="U10" s="20">
+        <v>10</v>
+      </c>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20">
+        <f t="shared" ref="Z10:Z13" si="2">SUM(L10:Y10)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5">
+        <v>10</v>
+      </c>
+      <c r="N11" s="5">
+        <v>10</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-15</v>
+      </c>
+      <c r="P11" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>15</v>
+      </c>
+      <c r="R11" s="5">
+        <v>10</v>
+      </c>
+      <c r="S11" s="14">
+        <v>10</v>
+      </c>
+      <c r="T11" s="21">
+        <v>-15</v>
+      </c>
+      <c r="U11" s="20">
+        <v>10</v>
+      </c>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20">
         <f t="shared" si="2"/>
-        <v>-140</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5">
-        <v>15</v>
-      </c>
-      <c r="M6" s="5">
-        <v>-15</v>
-      </c>
-      <c r="N6" s="5">
-        <v>10</v>
-      </c>
-      <c r="O6" s="5">
-        <v>10</v>
-      </c>
-      <c r="P6" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>15</v>
-      </c>
-      <c r="R6" s="5">
-        <v>10</v>
-      </c>
-      <c r="S6" s="13">
-        <v>0</v>
-      </c>
-      <c r="T6" s="20">
-        <v>0</v>
-      </c>
-      <c r="U6" s="19">
-        <v>10</v>
-      </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5">
-        <v>15</v>
-      </c>
-      <c r="M7" s="5">
-        <v>10</v>
-      </c>
-      <c r="N7" s="5">
-        <v>10</v>
-      </c>
-      <c r="O7" s="5">
-        <v>10</v>
-      </c>
-      <c r="P7" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>15</v>
-      </c>
-      <c r="R7" s="5">
-        <v>10</v>
-      </c>
-      <c r="S7" s="13">
-        <v>10</v>
-      </c>
-      <c r="T7" s="20">
-        <v>10</v>
-      </c>
-      <c r="U7" s="19">
-        <v>10</v>
-      </c>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="I12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="5">
-        <v>15</v>
-      </c>
-      <c r="M8" s="5">
-        <v>10</v>
-      </c>
-      <c r="N8" s="5">
-        <v>10</v>
-      </c>
-      <c r="O8" s="5">
-        <v>10</v>
-      </c>
-      <c r="P8" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>15</v>
-      </c>
-      <c r="R8" s="5">
-        <v>10</v>
-      </c>
-      <c r="S8" s="13">
-        <v>10</v>
-      </c>
-      <c r="T8" s="20">
-        <v>10</v>
-      </c>
-      <c r="U8" s="19">
-        <v>-15</v>
-      </c>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19">
+      <c r="J12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="5">
+        <v>15</v>
+      </c>
+      <c r="M12" s="5">
+        <v>10</v>
+      </c>
+      <c r="N12" s="5">
+        <v>10</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-15</v>
+      </c>
+      <c r="P12" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>15</v>
+      </c>
+      <c r="R12" s="5">
+        <v>10</v>
+      </c>
+      <c r="S12" s="14">
+        <v>10</v>
+      </c>
+      <c r="T12" s="21">
+        <v>10</v>
+      </c>
+      <c r="U12" s="20">
+        <v>10</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="5">
-        <v>15</v>
-      </c>
-      <c r="M9" s="5">
-        <v>-15</v>
-      </c>
-      <c r="N9" s="5">
-        <v>-15</v>
-      </c>
-      <c r="O9" s="5">
-        <v>-15</v>
-      </c>
-      <c r="P9" s="5">
-        <v>-15</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>15</v>
-      </c>
-      <c r="R9" s="5">
-        <v>10</v>
-      </c>
-      <c r="S9" s="13">
-        <v>-15</v>
-      </c>
-      <c r="T9" s="20">
-        <v>-15</v>
-      </c>
-      <c r="U9" s="19">
-        <v>-15</v>
-      </c>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+    <row r="13">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
+        <v>15</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10</v>
+      </c>
+      <c r="N13" s="5">
+        <v>10</v>
+      </c>
+      <c r="O13" s="5">
+        <v>10</v>
+      </c>
+      <c r="P13" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>15</v>
+      </c>
+      <c r="R13" s="5">
+        <v>10</v>
+      </c>
+      <c r="S13" s="14">
+        <v>-15</v>
+      </c>
+      <c r="T13" s="21">
+        <v>10</v>
+      </c>
+      <c r="U13" s="20">
+        <v>10</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20">
         <f t="shared" si="2"/>
-        <v>-65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>10</v>
-      </c>
-      <c r="P10" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>15</v>
-      </c>
-      <c r="R10" s="5">
-        <v>10</v>
-      </c>
-      <c r="S10" s="13">
-        <v>10</v>
-      </c>
-      <c r="T10" s="20">
-        <v>10</v>
-      </c>
-      <c r="U10" s="19">
-        <v>10</v>
-      </c>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19">
-        <f t="shared" ref="Z10:Z13" si="3">SUM(L10:Y10)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
-        <v>15</v>
-      </c>
-      <c r="M11" s="5">
-        <v>10</v>
-      </c>
-      <c r="N11" s="5">
-        <v>10</v>
-      </c>
-      <c r="O11" s="5">
-        <v>-15</v>
-      </c>
-      <c r="P11" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>15</v>
-      </c>
-      <c r="R11" s="5">
-        <v>10</v>
-      </c>
-      <c r="S11" s="13">
-        <v>10</v>
-      </c>
-      <c r="T11" s="20">
-        <v>-15</v>
-      </c>
-      <c r="U11" s="19">
-        <v>10</v>
-      </c>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="5">
-        <v>15</v>
-      </c>
-      <c r="M12" s="5">
-        <v>10</v>
-      </c>
-      <c r="N12" s="5">
-        <v>10</v>
-      </c>
-      <c r="O12" s="5">
-        <v>-15</v>
-      </c>
-      <c r="P12" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>15</v>
-      </c>
-      <c r="R12" s="5">
-        <v>10</v>
-      </c>
-      <c r="S12" s="13">
-        <v>10</v>
-      </c>
-      <c r="T12" s="20">
-        <v>10</v>
-      </c>
-      <c r="U12" s="19">
-        <v>10</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19">
-        <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="5">
-        <v>15</v>
-      </c>
-      <c r="M13" s="5">
-        <v>10</v>
-      </c>
-      <c r="N13" s="5">
-        <v>10</v>
-      </c>
-      <c r="O13" s="5">
-        <v>10</v>
-      </c>
-      <c r="P13" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>15</v>
-      </c>
-      <c r="R13" s="5">
-        <v>10</v>
-      </c>
-      <c r="S13" s="13">
-        <v>-15</v>
-      </c>
-      <c r="T13" s="20">
-        <v>10</v>
-      </c>
-      <c r="U13" s="19">
-        <v>10</v>
-      </c>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-    </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -3652,7 +3712,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00B30062-0013-4C28-AE02-001A0033004C}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00EF0054-0055-4704-A16E-001600BF00A1}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3663,7 +3723,7 @@
           <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{007500AB-00A2-4395-8161-00A300BE00B5}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{008300B6-0067-41DF-A85B-006E00060004}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3674,7 +3734,7 @@
           <xm:sqref>Z2 Z3 Z4 Z5 Z6 Z7 Z8 Z9 Z10 Z11 Z12 Z13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004300FC-002A-435C-B36A-0040002A0015}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006D0071-0018-469C-BC81-00BF00A100A2}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3705,15 +3765,15 @@
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="2.85546875"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="20.85546875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="12" width="4.7109375"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="12" width="8.85546875"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="13" width="4.7109375"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="13" width="8.85546875"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="3" width="7.85546875"/>
     <col bestFit="1" customWidth="1" min="6" max="6" style="3" width="6.28515625"/>
     <col bestFit="1" customWidth="1" min="7" max="7" style="3" width="7"/>
     <col bestFit="1" customWidth="1" min="8" max="8" style="3" width="5.28515625"/>
     <col bestFit="1" customWidth="1" min="9" max="9" style="3" width="7.28515625"/>
     <col bestFit="1" customWidth="1" min="10" max="10" style="3" width="7.140625"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" style="12" width="4.7109375"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" style="13" width="4.7109375"/>
     <col bestFit="1" customWidth="1" min="12" max="20" style="3" width="13.5703125"/>
   </cols>
   <sheetData>
@@ -3745,27 +3805,27 @@
       <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="4"/>
@@ -3775,26 +3835,26 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K9" si="4">SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K9" si="3">SUM(C2:J2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="4">
@@ -3814,26 +3874,26 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4"/>
@@ -3843,26 +3903,26 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="4"/>
@@ -3872,26 +3932,26 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="4">
@@ -3903,26 +3963,26 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="4">
@@ -3942,26 +4002,26 @@
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="4">
@@ -3977,26 +4037,26 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="4"/>
@@ -4006,26 +4066,26 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="4">
@@ -4045,26 +4105,26 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="4">
-        <f t="shared" ref="K10:K13" si="5">SUM(C10:J10)</f>
+        <f t="shared" ref="K10:K13" si="4">SUM(C10:J10)</f>
         <v>50</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="4">
@@ -4078,26 +4138,26 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="4">
@@ -4113,26 +4173,26 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="4">
@@ -4152,20 +4212,20 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,20 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF3886-C143-9448-A7DD-EC0F019C72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId4"/>
-    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" r:id="rId5"/>
-    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" r:id="rId6"/>
-    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" r:id="rId7"/>
+    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -79,30 +100,6 @@
     <t>Юрченко Дмитрий</t>
   </si>
   <si>
-    <t>База</t>
-  </si>
-  <si>
-    <t>Виджеты</t>
-  </si>
-  <si>
-    <t>Макеты</t>
-  </si>
-  <si>
-    <t>Меню</t>
-  </si>
-  <si>
-    <t>Диалог</t>
-  </si>
-  <si>
-    <t>Окна</t>
-  </si>
-  <si>
-    <t>Дизайн</t>
-  </si>
-  <si>
-    <t>Проект</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
@@ -144,33 +141,46 @@
   <si>
     <t>Шевцов Никита</t>
   </si>
+  <si>
+    <t>Проект (20)</t>
+  </si>
+  <si>
+    <t>База (11)</t>
+  </si>
+  <si>
+    <t>Макеты (11)</t>
+  </si>
+  <si>
+    <t>Меню (12)</t>
+  </si>
+  <si>
+    <t>Диалог (11)</t>
+  </si>
+  <si>
+    <t>Окна (11)</t>
+  </si>
+  <si>
+    <t>Виджеты (12)</t>
+  </si>
+  <si>
+    <t>Дизайн (12)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d.m"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -286,175 +296,187 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="ff9c5700"/>
+        <color rgb="FF006100"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff9c0006"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff006100"/>
+        <color rgb="FF9C5700"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff9c5700"/>
+        <color rgb="FF006100"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff9c0006"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff006100"/>
+        <color rgb="FF9C5700"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff9c5700"/>
-      <rgbColor rgb="ff9c0006"/>
-      <rgbColor rgb="ff006100"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF9C5700"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -580,7 +602,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -589,7 +611,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -598,7 +620,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -672,7 +694,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -680,7 +702,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -698,7 +720,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -727,7 +749,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,7 +774,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +799,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -802,7 +824,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +849,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +874,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +899,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +924,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +949,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,9 +962,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -957,7 +985,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -965,7 +993,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -983,7 +1011,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1036,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1061,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1086,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1111,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1136,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1161,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1186,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1211,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1236,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1221,9 +1249,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1237,7 +1271,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1255,7 +1289,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1309,7 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1418,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1443,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1434,7 +1468,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1493,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,7 +1518,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1497,40 +1531,48 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="157" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8516" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.17188" style="1" customWidth="1"/>
-    <col min="21" max="26" width="8.85156" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="21" max="27" width="8.83203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -1598,45 +1640,45 @@
       </c>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
-      <c r="Z1" t="s" s="9">
+      <c r="Z1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s" s="12">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="13">
@@ -1675,45 +1717,45 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="15">
-        <f>SUM(M2:T2)</f>
+        <f t="shared" ref="Z2:Z17" si="0">SUM(M2:T2)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="11">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s" s="12">
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="13">
@@ -1744,53 +1786,53 @@
         <v>-15</v>
       </c>
       <c r="V3" s="14">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="W3" s="15">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="15">
-        <f>SUM(M3:T3)</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s" s="12">
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="13">
@@ -1821,53 +1863,53 @@
         <v>10</v>
       </c>
       <c r="V4" s="14">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="15">
-        <f>SUM(M4:T4)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s" s="12">
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M5" s="13">
@@ -1906,45 +1948,45 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="15">
-        <f>SUM(M5:T5)</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s" s="12">
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="13">
@@ -1975,53 +2017,53 @@
         <v>10</v>
       </c>
       <c r="V6" s="14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="15">
-        <f>SUM(M6:T6)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s" s="12">
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="13">
@@ -2060,45 +2102,45 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="15">
-        <f>SUM(M7:T7)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s" s="12">
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="13">
@@ -2137,45 +2179,45 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="15">
-        <f>SUM(M8:T8)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s" s="12">
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="13">
@@ -2206,53 +2248,53 @@
         <v>10</v>
       </c>
       <c r="V9" s="14">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="W9" s="15">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="15">
-        <f>SUM(M9:T9)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L10" t="s" s="12">
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="13">
@@ -2291,45 +2333,45 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="15">
-        <f>SUM(M10:T10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="11">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L11" t="s" s="12">
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M11" s="13">
@@ -2368,45 +2410,45 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="15">
-        <f>SUM(M11:T11)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s" s="12">
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M12" s="13">
@@ -2445,45 +2487,45 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="15">
-        <f>SUM(M12:T12)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L13" t="s" s="12">
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="13">
@@ -2522,45 +2564,45 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="15">
-        <f>SUM(M13:T13)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="11">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L14" t="s" s="12">
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="13">
@@ -2599,45 +2641,45 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="15">
-        <f>SUM(M14:T14)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L15" t="s" s="12">
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="13">
@@ -2676,45 +2718,45 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="15">
-        <f>SUM(M15:T15)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="11">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="L16" t="s" s="12">
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M16" s="13">
@@ -2753,45 +2795,45 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="15">
-        <f>SUM(M16:T16)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="11">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K17" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="L17" t="s" s="12">
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="M17" s="13">
@@ -2830,24 +2872,24 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="15">
-        <f>SUM(M17:T17)</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="W2:Z17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2855,687 +2897,696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.35156" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.1719" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.35156" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.35156" style="16" customWidth="1"/>
-    <col min="6" max="6" width="6.67188" style="16" customWidth="1"/>
-    <col min="7" max="7" width="7.67188" style="16" customWidth="1"/>
-    <col min="8" max="8" width="5.67188" style="16" customWidth="1"/>
-    <col min="9" max="9" width="7.85156" style="16" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="16" customWidth="1"/>
-    <col min="11" max="11" width="5.17188" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.85156" style="16" customWidth="1"/>
-    <col min="13" max="19" width="13.5" style="16" customWidth="1"/>
-    <col min="20" max="16384" width="8.85156" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
+    <col min="13" max="19" width="13.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="17">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="31">
+        <v>11</v>
+      </c>
+      <c r="D2" s="33">
+        <v>12</v>
+      </c>
+      <c r="E2" s="33">
+        <v>11</v>
+      </c>
+      <c r="F2" s="33">
+        <v>12</v>
+      </c>
+      <c r="G2" s="33">
+        <v>10</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="31">
+        <f t="shared" ref="K2:K17" si="0">SUM(C2:J2)</f>
+        <v>56</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="31">
+        <v>11</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33">
+        <v>11</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="31">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E1" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="21">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13">
-        <v>10</v>
-      </c>
-      <c r="E2" s="13">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13">
-        <v>10</v>
-      </c>
-      <c r="G2" s="13">
-        <v>10</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="20">
-        <f>SUM(C2:J2)</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="21">
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33">
+        <v>10</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="31">
+        <v>9</v>
+      </c>
+      <c r="D6" s="33">
+        <v>12</v>
+      </c>
+      <c r="E6" s="33">
+        <v>11</v>
+      </c>
+      <c r="F6" s="32">
+        <v>7</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="20">
-        <f>SUM(C3:J3)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="21">
+      <c r="B7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33">
+        <v>9</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33">
+        <v>10</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="C4" s="20">
-        <v>10</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="13">
-        <v>10</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="20">
-        <f>SUM(C4:J4)</f>
+      <c r="B8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="31">
+        <v>11</v>
+      </c>
+      <c r="D8" s="33">
+        <v>12</v>
+      </c>
+      <c r="E8" s="33">
+        <v>11</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32">
         <v>20</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="21">
+      <c r="K8" s="31">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="13">
-        <v>8</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="20">
-        <f>SUM(C5:J5)</f>
-        <v>8</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="21">
+      <c r="B9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="31">
+        <v>11</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="C6" s="20">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="20">
-        <f>SUM(C6:J6)</f>
-        <v>28</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="21">
-        <v>10</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="13">
-        <v>7</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="13">
-        <v>8</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="20">
-        <f>SUM(C7:J7)</f>
-        <v>15</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="21">
+      <c r="B10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="31">
         <v>11</v>
       </c>
-      <c r="C8" s="20">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13">
-        <v>10</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="20">
-        <f>SUM(C8:J8)</f>
-        <v>30</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="21">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="31">
+        <v>9</v>
+      </c>
+      <c r="D11" s="33">
         <v>12</v>
       </c>
-      <c r="C9" s="20">
-        <v>10</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20">
-        <f>SUM(C9:J9)</f>
-        <v>10</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="20">
+      <c r="E11" s="33">
+        <v>11</v>
+      </c>
+      <c r="F11" s="33">
+        <v>12</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="31">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="31">
+        <v>11</v>
+      </c>
+      <c r="D12" s="33">
+        <v>10</v>
+      </c>
+      <c r="E12" s="33">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="21">
+      <c r="F12" s="33">
+        <v>10</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="31">
+        <v>11</v>
+      </c>
+      <c r="D13" s="33">
+        <v>12</v>
+      </c>
+      <c r="E13" s="33">
+        <v>11</v>
+      </c>
+      <c r="F13" s="33">
+        <v>12</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="31">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="C10" s="20">
-        <v>10</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20">
-        <f>SUM(C10:J10)</f>
-        <v>10</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="21">
+      <c r="B14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33">
+        <v>10</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="C11" s="20">
-        <v>8</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10</v>
-      </c>
-      <c r="E11" s="13">
-        <v>10</v>
-      </c>
-      <c r="F11" s="13">
-        <v>10</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="20">
-        <f>SUM(C11:J11)</f>
-        <v>38</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="20">
+      <c r="B15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="31">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="21">
-        <v>15</v>
-      </c>
-      <c r="C12" s="20">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13">
-        <v>8</v>
-      </c>
-      <c r="E12" s="13">
-        <v>8</v>
-      </c>
-      <c r="F12" s="13">
-        <v>8</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20">
-        <f>SUM(C12:J12)</f>
-        <v>34</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="20">
+      <c r="D15" s="33">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="21">
+      <c r="E15" s="33">
+        <v>11</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32">
+        <v>20</v>
+      </c>
+      <c r="K15" s="31">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="33">
+        <v>9</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33">
+        <v>10</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="C13" s="20">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13">
-        <v>10</v>
-      </c>
-      <c r="F13" s="13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="20">
-        <f>SUM(C13:J13)</f>
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="31">
+        <v>11</v>
+      </c>
+      <c r="D17" s="33">
+        <v>10</v>
+      </c>
+      <c r="E17" s="33">
+        <v>9</v>
+      </c>
+      <c r="F17" s="33">
+        <v>10</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="31">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="21">
-        <v>17</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="13">
-        <v>8</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="20">
-        <f>SUM(C14:J14)</f>
-        <v>8</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="21">
-        <v>18</v>
-      </c>
-      <c r="C15" s="20">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13">
-        <v>10</v>
-      </c>
-      <c r="E15" s="13">
-        <v>10</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="20">
-        <f>SUM(C15:J15)</f>
-        <v>30</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="21">
-        <v>19</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="13">
-        <v>7</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="13">
-        <v>8</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="20">
-        <f>SUM(C16:J16)</f>
-        <v>15</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="20">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="C17" s="20">
-        <v>10</v>
-      </c>
-      <c r="D17" s="13">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13">
-        <v>8</v>
-      </c>
-      <c r="F17" s="13">
-        <v>8</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="20">
-        <f>SUM(C17:J17)</f>
-        <v>34</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3543,31 +3594,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="26" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="26" customWidth="1"/>
-    <col min="3" max="7" width="6.5" style="26" customWidth="1"/>
-    <col min="8" max="15" width="7.35156" style="26" customWidth="1"/>
-    <col min="16" max="18" width="7.5" style="26" customWidth="1"/>
-    <col min="19" max="20" width="6.85156" style="26" customWidth="1"/>
-    <col min="21" max="25" width="9.17188" style="26" customWidth="1"/>
-    <col min="26" max="26" width="8.85156" style="26" customWidth="1"/>
-    <col min="27" max="16384" width="8.85156" style="26" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="6.5" style="1" customWidth="1"/>
+    <col min="8" max="15" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="7.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" style="1" customWidth="1"/>
+    <col min="21" max="25" width="9.1640625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="8.83203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -3627,52 +3679,52 @@
       <c r="U1" s="3">
         <v>45007</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="25">
         <v>45019</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="25">
         <v>45020</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="25">
         <v>45021</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" t="s" s="9">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="28">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s" s="12">
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="13">
@@ -3714,44 +3766,44 @@
       <c r="X2" s="13">
         <v>-15</v>
       </c>
-      <c r="Y2" s="22"/>
+      <c r="Y2" s="21"/>
       <c r="Z2" s="15">
-        <f>SUM(L2:Y2)</f>
+        <f t="shared" ref="Z2:Z13" si="0">SUM(L2:Y2)</f>
         <v>-55</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="28">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s" s="12">
+      <c r="B3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="13">
@@ -3793,44 +3845,44 @@
       <c r="X3" s="13">
         <v>10</v>
       </c>
-      <c r="Y3" s="22"/>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="15">
-        <f>SUM(L3:Y3)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="28">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s" s="12">
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="13">
@@ -3872,44 +3924,44 @@
       <c r="X4" s="13">
         <v>-15</v>
       </c>
-      <c r="Y4" s="22"/>
+      <c r="Y4" s="21"/>
       <c r="Z4" s="15">
-        <f>SUM(L4:Y4)</f>
+        <f t="shared" si="0"/>
         <v>-55</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="28">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s" s="12">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="13">
@@ -3951,44 +4003,44 @@
       <c r="X5" s="13">
         <v>-15</v>
       </c>
-      <c r="Y5" s="22"/>
+      <c r="Y5" s="21"/>
       <c r="Z5" s="15">
-        <f>SUM(L5:Y5)</f>
+        <f t="shared" si="0"/>
         <v>-180</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="28">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s" s="12">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="13">
@@ -4030,44 +4082,44 @@
       <c r="X6" s="13">
         <v>-15</v>
       </c>
-      <c r="Y6" s="22"/>
+      <c r="Y6" s="21"/>
       <c r="Z6" s="15">
-        <f>SUM(L6:Y6)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="28">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s" s="12">
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="13">
@@ -4109,44 +4161,44 @@
       <c r="X7" s="13">
         <v>10</v>
       </c>
-      <c r="Y7" s="22"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="15">
-        <f>SUM(L7:Y7)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="28">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s" s="12">
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="13">
@@ -4188,44 +4240,44 @@
       <c r="X8" s="13">
         <v>10</v>
       </c>
-      <c r="Y8" s="22"/>
+      <c r="Y8" s="21"/>
       <c r="Z8" s="15">
-        <f>SUM(L8:Y8)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="28">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s" s="12">
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="13">
@@ -4267,44 +4319,44 @@
       <c r="X9" s="13">
         <v>-15</v>
       </c>
-      <c r="Y9" s="22"/>
+      <c r="Y9" s="21"/>
       <c r="Z9" s="15">
-        <f>SUM(L9:Y9)</f>
+        <f t="shared" si="0"/>
         <v>-55</v>
       </c>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="28">
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s" s="12">
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="13">
@@ -4346,44 +4398,44 @@
       <c r="X10" s="13">
         <v>10</v>
       </c>
-      <c r="Y10" s="22"/>
+      <c r="Y10" s="21"/>
       <c r="Z10" s="15">
-        <f>SUM(L10:Y10)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="28">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s" s="12">
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L11" s="13">
@@ -4425,45 +4477,45 @@
       <c r="X11" s="13">
         <v>-15</v>
       </c>
-      <c r="Y11" s="22"/>
+      <c r="Y11" s="21"/>
       <c r="Z11" s="15">
-        <f>SUM(L11:Y11)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="28">
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="K12" t="s" s="12">
-        <v>36</v>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="L12" s="13">
         <v>15</v>
@@ -4504,44 +4556,44 @@
       <c r="X12" s="13">
         <v>-15</v>
       </c>
-      <c r="Y12" s="22"/>
+      <c r="Y12" s="21"/>
       <c r="Z12" s="15">
-        <f>SUM(L12:Y12)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="28">
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s" s="12">
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L13" s="13">
@@ -4583,138 +4635,138 @@
       <c r="X13" s="13">
         <v>10</v>
       </c>
-      <c r="Y13" s="22"/>
+      <c r="Y13" s="21"/>
       <c r="Z13" s="15">
-        <f>SUM(L13:Y13)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="24"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="25"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="25"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="25"/>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="23"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="24"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="24"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z2:Z13">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4722,502 +4774,507 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="33" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="33" customWidth="1"/>
-    <col min="3" max="3" width="4.67188" style="33" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="33" customWidth="1"/>
-    <col min="5" max="5" width="7.85156" style="33" customWidth="1"/>
-    <col min="6" max="6" width="6.35156" style="33" customWidth="1"/>
-    <col min="7" max="7" width="7" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.35156" style="33" customWidth="1"/>
-    <col min="9" max="9" width="7.35156" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.17188" style="33" customWidth="1"/>
-    <col min="11" max="11" width="4.67188" style="33" customWidth="1"/>
-    <col min="12" max="21" width="13.5" style="33" customWidth="1"/>
-    <col min="22" max="16384" width="8.85156" style="33" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12" max="21" width="13.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="17">
+    <row r="1" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="31">
+        <f t="shared" ref="K2:K13" si="0">SUM(C2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="C3" s="31">
+        <v>11</v>
+      </c>
+      <c r="D3" s="31">
+        <v>12</v>
+      </c>
+      <c r="E3" s="33">
+        <v>11</v>
+      </c>
+      <c r="F3" s="33">
+        <v>12</v>
+      </c>
+      <c r="G3" s="33">
+        <v>11</v>
+      </c>
+      <c r="H3" s="33">
+        <v>11</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="31">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32">
+        <v>11</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s" s="12">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s" s="12">
+      <c r="C6" s="31">
+        <v>11</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s" s="12">
+      <c r="C7" s="31">
+        <v>11</v>
+      </c>
+      <c r="D7" s="31">
+        <v>12</v>
+      </c>
+      <c r="E7" s="33">
+        <v>11</v>
+      </c>
+      <c r="F7" s="33">
+        <v>12</v>
+      </c>
+      <c r="G7" s="33">
+        <v>11</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="31">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="21">
+      <c r="C8" s="31">
+        <v>11</v>
+      </c>
+      <c r="D8" s="31">
+        <v>12</v>
+      </c>
+      <c r="E8" s="33">
+        <v>11</v>
+      </c>
+      <c r="F8" s="33">
+        <v>12</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="31">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="20">
-        <f>SUM(C2:J2)</f>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="21">
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="20">
-        <v>10</v>
-      </c>
-      <c r="D3" s="20">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13">
-        <v>10</v>
-      </c>
-      <c r="F3" s="13">
-        <v>10</v>
-      </c>
-      <c r="G3" s="13">
-        <v>10</v>
-      </c>
-      <c r="H3" s="13">
-        <v>10</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="20">
-        <f>SUM(C3:J3)</f>
-        <v>60</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="21">
+      <c r="C10" s="31">
+        <v>11</v>
+      </c>
+      <c r="D10" s="31">
+        <v>12</v>
+      </c>
+      <c r="E10" s="33">
+        <v>11</v>
+      </c>
+      <c r="F10" s="33">
+        <v>12</v>
+      </c>
+      <c r="G10" s="33">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33">
+        <v>11</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="31">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="20">
-        <f>SUM(C4:J4)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="21">
+      <c r="C11" s="31">
+        <v>9</v>
+      </c>
+      <c r="D11" s="31">
+        <v>8</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="20">
-        <f>SUM(C5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="21">
+      <c r="C12" s="31">
+        <v>6</v>
+      </c>
+      <c r="D12" s="31">
+        <v>12</v>
+      </c>
+      <c r="E12" s="33">
+        <v>11</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="20">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="20">
-        <f>SUM(C6:J6)</f>
-        <v>10</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="21">
-        <v>35</v>
-      </c>
-      <c r="C7" s="20">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13">
-        <v>10</v>
-      </c>
-      <c r="G7" s="13">
-        <v>10</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="20">
-        <f>SUM(C7:J7)</f>
-        <v>50</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="21">
-        <v>37</v>
-      </c>
-      <c r="C8" s="20">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13">
-        <v>10</v>
-      </c>
-      <c r="F8" s="13">
-        <v>10</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="20">
-        <f>SUM(C8:J8)</f>
-        <v>40</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="21">
-        <v>38</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20">
-        <f>SUM(C9:J9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="21">
-        <v>39</v>
-      </c>
-      <c r="C10" s="20">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13">
-        <v>10</v>
-      </c>
-      <c r="G10" s="13">
-        <v>10</v>
-      </c>
-      <c r="H10" s="13">
-        <v>10</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20">
-        <f>SUM(C10:J10)</f>
-        <v>60</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="21">
-        <v>40</v>
-      </c>
-      <c r="C11" s="20">
-        <v>8</v>
-      </c>
-      <c r="D11" s="20">
-        <v>6</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="20">
-        <f>SUM(C11:J11)</f>
-        <v>14</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="20">
+      <c r="C13" s="31">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="21">
-        <v>41</v>
-      </c>
-      <c r="C12" s="20">
-        <v>5</v>
-      </c>
-      <c r="D12" s="20">
-        <v>10</v>
-      </c>
-      <c r="E12" s="13">
-        <v>10</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20">
-        <f>SUM(C12:J12)</f>
-        <v>25</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="20">
+      <c r="D13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="21">
-        <v>42</v>
-      </c>
-      <c r="C13" s="20">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13">
-        <v>10</v>
-      </c>
-      <c r="F13" s="13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="13">
-        <v>10</v>
-      </c>
-      <c r="H13" s="13">
-        <v>10</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="20">
-        <f>SUM(C13:J13)</f>
-        <v>60</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="E13" s="33">
+        <v>11</v>
+      </c>
+      <c r="F13" s="33">
+        <v>12</v>
+      </c>
+      <c r="G13" s="33">
+        <v>11</v>
+      </c>
+      <c r="H13" s="33">
+        <v>11</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="31">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656AA3FB-7A1E-664C-8B87-0D5EEF656565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F625DAA-76B2-5944-9545-A4C9E4C34FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -3148,7 +3148,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="188" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3868,9 +3868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="216" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="216" workbookViewId="0">
       <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3965,7 +3965,9 @@
       <c r="Z1" s="38">
         <v>45033</v>
       </c>
-      <c r="AA1" s="35"/>
+      <c r="AA1" s="38">
+        <v>45034</v>
+      </c>
       <c r="AB1" s="35"/>
       <c r="AC1" s="36" t="s">
         <v>2</v>
@@ -4050,11 +4052,13 @@
       <c r="Z2" s="35">
         <v>30</v>
       </c>
-      <c r="AA2" s="35"/>
+      <c r="AA2" s="35">
+        <v>10</v>
+      </c>
       <c r="AB2" s="35"/>
       <c r="AC2" s="37">
-        <f t="shared" ref="AC2:AC13" si="0">SUM(L2:Z2)</f>
-        <v>-15</v>
+        <f>SUM(L2:AA2)</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4136,11 +4140,13 @@
       <c r="Z3" s="35">
         <v>30</v>
       </c>
-      <c r="AA3" s="35"/>
+      <c r="AA3" s="35">
+        <v>10</v>
+      </c>
       <c r="AB3" s="35"/>
       <c r="AC3" s="37">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(L3:AA3)</f>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4222,11 +4228,13 @@
       <c r="Z4" s="35">
         <v>30</v>
       </c>
-      <c r="AA4" s="35"/>
+      <c r="AA4" s="35">
+        <v>-15</v>
+      </c>
       <c r="AB4" s="35"/>
       <c r="AC4" s="37">
-        <f t="shared" si="0"/>
-        <v>-40</v>
+        <f>SUM(L4:AA4)</f>
+        <v>-55</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4308,11 +4316,13 @@
       <c r="Z5" s="35">
         <v>-20</v>
       </c>
-      <c r="AA5" s="35"/>
+      <c r="AA5" s="35">
+        <v>-15</v>
+      </c>
       <c r="AB5" s="35"/>
       <c r="AC5" s="37">
-        <f t="shared" si="0"/>
-        <v>-105</v>
+        <f>SUM(L5:AA5)</f>
+        <v>-120</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,11 +4404,13 @@
       <c r="Z6" s="35">
         <v>30</v>
       </c>
-      <c r="AA6" s="35"/>
+      <c r="AA6" s="35">
+        <v>10</v>
+      </c>
       <c r="AB6" s="35"/>
       <c r="AC6" s="37">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(L6:AA6)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4480,11 +4492,13 @@
       <c r="Z7" s="35">
         <v>30</v>
       </c>
-      <c r="AA7" s="35"/>
+      <c r="AA7" s="35">
+        <v>10</v>
+      </c>
       <c r="AB7" s="35"/>
       <c r="AC7" s="37">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(L7:AA7)</f>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4566,11 +4580,13 @@
       <c r="Z8" s="35">
         <v>30</v>
       </c>
-      <c r="AA8" s="35"/>
+      <c r="AA8" s="35">
+        <v>10</v>
+      </c>
       <c r="AB8" s="35"/>
       <c r="AC8" s="37">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>SUM(L8:AA8)</f>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4652,11 +4668,13 @@
       <c r="Z9" s="35">
         <v>0</v>
       </c>
-      <c r="AA9" s="35"/>
+      <c r="AA9" s="35">
+        <v>10</v>
+      </c>
       <c r="AB9" s="35"/>
       <c r="AC9" s="37">
-        <f t="shared" si="0"/>
-        <v>-45</v>
+        <f>SUM(L9:AA9)</f>
+        <v>-35</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4738,11 +4756,13 @@
       <c r="Z10" s="35">
         <v>30</v>
       </c>
-      <c r="AA10" s="35"/>
+      <c r="AA10" s="35">
+        <v>10</v>
+      </c>
       <c r="AB10" s="35"/>
       <c r="AC10" s="37">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <f>SUM(L10:AA10)</f>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4824,11 +4844,13 @@
       <c r="Z11" s="35">
         <v>30</v>
       </c>
-      <c r="AA11" s="35"/>
+      <c r="AA11" s="35">
+        <v>10</v>
+      </c>
       <c r="AB11" s="35"/>
       <c r="AC11" s="37">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>SUM(L11:AA11)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4910,11 +4932,13 @@
       <c r="Z12" s="35">
         <v>30</v>
       </c>
-      <c r="AA12" s="35"/>
+      <c r="AA12" s="35">
+        <v>10</v>
+      </c>
       <c r="AB12" s="35"/>
       <c r="AC12" s="37">
-        <f t="shared" si="0"/>
-        <v>135</v>
+        <f>SUM(L12:AA12)</f>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4996,11 +5020,13 @@
       <c r="Z13" s="35">
         <v>30</v>
       </c>
-      <c r="AA13" s="35"/>
+      <c r="AA13" s="35">
+        <v>10</v>
+      </c>
       <c r="AB13" s="35"/>
       <c r="AC13" s="37">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>SUM(L13:AA13)</f>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5139,8 +5165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5216,7 +5242,9 @@
       <c r="C2" s="29">
         <v>11</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="29">
+        <v>12</v>
+      </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -5225,7 +5253,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="29">
         <f t="shared" ref="K2:K13" si="0">SUM(C2:J2)</f>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="17"/>
@@ -5352,8 +5380,12 @@
       <c r="C6" s="29">
         <v>11</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="29">
+        <v>12</v>
+      </c>
+      <c r="E6" s="30">
+        <v>9</v>
+      </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -5361,7 +5393,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="29">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="17"/>
@@ -5399,11 +5431,13 @@
       <c r="H7" s="30">
         <v>11</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30">
+        <v>12</v>
+      </c>
       <c r="J7" s="30"/>
       <c r="K7" s="29">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
@@ -5436,12 +5470,14 @@
         <v>12</v>
       </c>
       <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="30">
+        <v>11</v>
+      </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="29">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
@@ -5461,7 +5497,9 @@
       <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="29">
+        <v>11</v>
+      </c>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -5471,7 +5509,7 @@
       <c r="J9" s="30"/>
       <c r="K9" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="17"/>
@@ -5509,11 +5547,13 @@
       <c r="H10" s="31">
         <v>11</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="30">
+        <v>12</v>
+      </c>
       <c r="J10" s="30"/>
       <c r="K10" s="29">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
@@ -5625,11 +5665,13 @@
       <c r="H13" s="31">
         <v>11</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>12</v>
+      </c>
       <c r="J13" s="30"/>
       <c r="K13" s="29">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F625DAA-76B2-5944-9545-A4C9E4C34FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB32760-5195-BA4B-A94E-97FB5E781DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -3868,9 +3868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="216" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="216" workbookViewId="0">
       <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
+      <selection pane="topRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3968,7 +3968,9 @@
       <c r="AA1" s="38">
         <v>45034</v>
       </c>
-      <c r="AB1" s="35"/>
+      <c r="AB1" s="38">
+        <v>45035</v>
+      </c>
       <c r="AC1" s="36" t="s">
         <v>2</v>
       </c>
@@ -4055,10 +4057,12 @@
       <c r="AA2" s="35">
         <v>10</v>
       </c>
-      <c r="AB2" s="35"/>
+      <c r="AB2" s="35">
+        <v>-15</v>
+      </c>
       <c r="AC2" s="37">
-        <f>SUM(L2:AA2)</f>
-        <v>-5</v>
+        <f>SUM(L2:AB2)</f>
+        <v>-20</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,10 +4147,12 @@
       <c r="AA3" s="35">
         <v>10</v>
       </c>
-      <c r="AB3" s="35"/>
+      <c r="AB3" s="35">
+        <v>10</v>
+      </c>
       <c r="AC3" s="37">
-        <f>SUM(L3:AA3)</f>
-        <v>195</v>
+        <f>SUM(L3:AB3)</f>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4231,10 +4237,12 @@
       <c r="AA4" s="35">
         <v>-15</v>
       </c>
-      <c r="AB4" s="35"/>
+      <c r="AB4" s="35">
+        <v>-15</v>
+      </c>
       <c r="AC4" s="37">
-        <f>SUM(L4:AA4)</f>
-        <v>-55</v>
+        <f>SUM(L4:AB4)</f>
+        <v>-70</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4319,10 +4327,12 @@
       <c r="AA5" s="35">
         <v>-15</v>
       </c>
-      <c r="AB5" s="35"/>
+      <c r="AB5" s="35">
+        <v>-15</v>
+      </c>
       <c r="AC5" s="37">
-        <f>SUM(L5:AA5)</f>
-        <v>-120</v>
+        <f>SUM(L5:AB5)</f>
+        <v>-135</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4407,10 +4417,12 @@
       <c r="AA6" s="35">
         <v>10</v>
       </c>
-      <c r="AB6" s="35"/>
+      <c r="AB6" s="35">
+        <v>10</v>
+      </c>
       <c r="AC6" s="37">
-        <f>SUM(L6:AA6)</f>
-        <v>100</v>
+        <f>SUM(L6:AB6)</f>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4495,10 +4507,12 @@
       <c r="AA7" s="35">
         <v>10</v>
       </c>
-      <c r="AB7" s="35"/>
+      <c r="AB7" s="35">
+        <v>-15</v>
+      </c>
       <c r="AC7" s="37">
-        <f>SUM(L7:AA7)</f>
-        <v>195</v>
+        <f>SUM(L7:AB7)</f>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4583,10 +4597,12 @@
       <c r="AA8" s="35">
         <v>10</v>
       </c>
-      <c r="AB8" s="35"/>
+      <c r="AB8" s="35">
+        <v>-15</v>
+      </c>
       <c r="AC8" s="37">
-        <f>SUM(L8:AA8)</f>
-        <v>170</v>
+        <f>SUM(L8:AB8)</f>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4671,10 +4687,12 @@
       <c r="AA9" s="35">
         <v>10</v>
       </c>
-      <c r="AB9" s="35"/>
+      <c r="AB9" s="35">
+        <v>-15</v>
+      </c>
       <c r="AC9" s="37">
-        <f>SUM(L9:AA9)</f>
-        <v>-35</v>
+        <f>SUM(L9:AB9)</f>
+        <v>-50</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4759,10 +4777,12 @@
       <c r="AA10" s="35">
         <v>10</v>
       </c>
-      <c r="AB10" s="35"/>
+      <c r="AB10" s="35">
+        <v>-15</v>
+      </c>
       <c r="AC10" s="37">
-        <f>SUM(L10:AA10)</f>
-        <v>135</v>
+        <f>SUM(L10:AB10)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4847,10 +4867,12 @@
       <c r="AA11" s="35">
         <v>10</v>
       </c>
-      <c r="AB11" s="35"/>
+      <c r="AB11" s="35">
+        <v>10</v>
+      </c>
       <c r="AC11" s="37">
-        <f>SUM(L11:AA11)</f>
-        <v>45</v>
+        <f>SUM(L11:AB11)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4935,9 +4957,11 @@
       <c r="AA12" s="35">
         <v>10</v>
       </c>
-      <c r="AB12" s="35"/>
+      <c r="AB12" s="35">
+        <v>0</v>
+      </c>
       <c r="AC12" s="37">
-        <f>SUM(L12:AA12)</f>
+        <f>SUM(L12:AB12)</f>
         <v>145</v>
       </c>
     </row>
@@ -5023,10 +5047,12 @@
       <c r="AA13" s="35">
         <v>10</v>
       </c>
-      <c r="AB13" s="35"/>
+      <c r="AB13" s="35">
+        <v>10</v>
+      </c>
       <c r="AC13" s="37">
-        <f>SUM(L13:AA13)</f>
-        <v>170</v>
+        <f>SUM(L13:AB13)</f>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5165,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5291,11 +5317,13 @@
       <c r="H3" s="31">
         <v>11</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="30">
+        <v>12</v>
+      </c>
       <c r="J3" s="30"/>
       <c r="K3" s="29">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="17"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB32760-5195-BA4B-A94E-97FB5E781DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27860A18-E80E-0F4D-8A46-1FE2ABC16DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,6 +417,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1610,11 +1613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="183" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="183" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1628,7 +1631,7 @@
     <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1710,12 +1713,17 @@
       <c r="AA1" s="41">
         <v>45033</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AB1" s="41">
+        <v>45036</v>
+      </c>
+      <c r="AC1" s="38">
+        <v>45040</v>
+      </c>
+      <c r="AD1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1797,13 +1805,18 @@
       <c r="AA2" s="37">
         <v>30</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37">
-        <f t="shared" ref="AC2:AC17" si="0">SUM(M2:AA2)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="37">
+        <v>-15</v>
+      </c>
+      <c r="AC2" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="37">
+        <f t="shared" ref="AD2:AD17" si="0">SUM(M2:AC2)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1885,13 +1898,18 @@
       <c r="AA3" s="37">
         <v>-20</v>
       </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37">
+      <c r="AB3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="37">
         <f t="shared" si="0"/>
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1973,13 +1991,18 @@
       <c r="AA4" s="37">
         <v>30</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37">
+      <c r="AB4" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="43">
+        <v>-15</v>
+      </c>
+      <c r="AD4" s="37">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2061,13 +2084,18 @@
       <c r="AA5" s="37">
         <v>30</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37">
+      <c r="AB5" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="37">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2149,13 +2177,18 @@
       <c r="AA6" s="37">
         <v>30</v>
       </c>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37">
+      <c r="AB6" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="37">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2237,13 +2270,18 @@
       <c r="AA7" s="37">
         <v>-20</v>
       </c>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37">
+      <c r="AB7" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="43">
+        <v>-15</v>
+      </c>
+      <c r="AD7" s="37">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2325,13 +2363,18 @@
       <c r="AA8" s="37">
         <v>30</v>
       </c>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37">
+      <c r="AB8" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="37">
         <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2413,13 +2456,18 @@
       <c r="AA9" s="37">
         <v>30</v>
       </c>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37">
+      <c r="AB9" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="43">
+        <v>-15</v>
+      </c>
+      <c r="AD9" s="37">
         <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2501,13 +2549,18 @@
       <c r="AA10" s="37">
         <v>30</v>
       </c>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37">
+      <c r="AB10" s="37">
+        <v>-15</v>
+      </c>
+      <c r="AC10" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="37">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2589,13 +2642,18 @@
       <c r="AA11" s="37">
         <v>-20</v>
       </c>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37">
+      <c r="AB11" s="37">
+        <v>-15</v>
+      </c>
+      <c r="AC11" s="43">
+        <v>-15</v>
+      </c>
+      <c r="AD11" s="37">
         <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2677,13 +2735,18 @@
       <c r="AA12" s="37">
         <v>30</v>
       </c>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37">
+      <c r="AB12" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="37">
         <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2765,13 +2828,18 @@
       <c r="AA13" s="37">
         <v>30</v>
       </c>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37">
+      <c r="AB13" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="37">
         <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2853,13 +2921,18 @@
       <c r="AA14" s="37">
         <v>30</v>
       </c>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37">
+      <c r="AB14" s="37">
+        <v>-15</v>
+      </c>
+      <c r="AC14" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="37">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2941,13 +3014,18 @@
       <c r="AA15" s="37">
         <v>30</v>
       </c>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37">
+      <c r="AB15" s="37">
+        <v>-15</v>
+      </c>
+      <c r="AC15" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="37">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3029,13 +3107,18 @@
       <c r="AA16" s="37">
         <v>30</v>
       </c>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37">
+      <c r="AB16" s="37">
+        <v>-15</v>
+      </c>
+      <c r="AC16" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="37">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3117,14 +3200,19 @@
       <c r="AA17" s="37">
         <v>30</v>
       </c>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37">
+      <c r="AB17" s="37">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="37">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="W2:Y17 AC2:AC17">
+  <conditionalFormatting sqref="W2:Y17 AD2:AD17">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3148,7 +3236,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="188" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3326,7 +3414,9 @@
       <c r="D5" s="31">
         <v>10</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="30">
+        <v>11</v>
+      </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -3334,7 +3424,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="29">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
@@ -3536,7 +3626,9 @@
       <c r="F11" s="31">
         <v>12</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="30">
+        <v>11</v>
+      </c>
       <c r="H11" s="30">
         <v>11</v>
       </c>
@@ -3544,7 +3636,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="29">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
@@ -3616,11 +3708,13 @@
       <c r="H13" s="30">
         <v>11</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>12</v>
+      </c>
       <c r="J13" s="30"/>
       <c r="K13" s="29">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>
@@ -3868,8 +3962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="216" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="216" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
@@ -4061,7 +4155,7 @@
         <v>-15</v>
       </c>
       <c r="AC2" s="37">
-        <f>SUM(L2:AB2)</f>
+        <f t="shared" ref="AC2:AC13" si="0">SUM(L2:AB2)</f>
         <v>-20</v>
       </c>
     </row>
@@ -4151,7 +4245,7 @@
         <v>10</v>
       </c>
       <c r="AC3" s="37">
-        <f>SUM(L3:AB3)</f>
+        <f t="shared" si="0"/>
         <v>205</v>
       </c>
     </row>
@@ -4241,7 +4335,7 @@
         <v>-15</v>
       </c>
       <c r="AC4" s="37">
-        <f>SUM(L4:AB4)</f>
+        <f t="shared" si="0"/>
         <v>-70</v>
       </c>
     </row>
@@ -4331,7 +4425,7 @@
         <v>-15</v>
       </c>
       <c r="AC5" s="37">
-        <f>SUM(L5:AB5)</f>
+        <f t="shared" si="0"/>
         <v>-135</v>
       </c>
     </row>
@@ -4421,7 +4515,7 @@
         <v>10</v>
       </c>
       <c r="AC6" s="37">
-        <f>SUM(L6:AB6)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
@@ -4511,7 +4605,7 @@
         <v>-15</v>
       </c>
       <c r="AC7" s="37">
-        <f>SUM(L7:AB7)</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
@@ -4601,7 +4695,7 @@
         <v>-15</v>
       </c>
       <c r="AC8" s="37">
-        <f>SUM(L8:AB8)</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
     </row>
@@ -4691,7 +4785,7 @@
         <v>-15</v>
       </c>
       <c r="AC9" s="37">
-        <f>SUM(L9:AB9)</f>
+        <f t="shared" si="0"/>
         <v>-50</v>
       </c>
     </row>
@@ -4781,7 +4875,7 @@
         <v>-15</v>
       </c>
       <c r="AC10" s="37">
-        <f>SUM(L10:AB10)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -4871,7 +4965,7 @@
         <v>10</v>
       </c>
       <c r="AC11" s="37">
-        <f>SUM(L11:AB11)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -4961,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="37">
-        <f>SUM(L12:AB12)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
@@ -5051,7 +5145,7 @@
         <v>10</v>
       </c>
       <c r="AC13" s="37">
-        <f>SUM(L13:AB13)</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/IT-and-IS-development-platforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27860A18-E80E-0F4D-8A46-1FE2ABC16DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA0817-F313-8C40-BAB1-6E2A1E64F577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -324,12 +324,36 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="12"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="12"/>
-      </right>
-      <top/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
@@ -339,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,7 +422,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +445,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1615,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="183" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="183" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AB13" sqref="AB13"/>
     </sheetView>
@@ -1701,25 +1727,25 @@
       <c r="W1" s="7">
         <v>45022</v>
       </c>
-      <c r="X1" s="39">
+      <c r="X1" s="38">
         <v>45029</v>
       </c>
-      <c r="Y1" s="41">
+      <c r="Y1" s="40">
         <v>45029</v>
       </c>
-      <c r="Z1" s="41">
+      <c r="Z1" s="40">
         <v>45033</v>
       </c>
-      <c r="AA1" s="41">
+      <c r="AA1" s="40">
         <v>45033</v>
       </c>
-      <c r="AB1" s="41">
+      <c r="AB1" s="40">
         <v>45036</v>
       </c>
-      <c r="AC1" s="38">
+      <c r="AC1" s="37">
         <v>45040</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AD1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1793,25 +1819,25 @@
       <c r="W2" s="14">
         <v>10</v>
       </c>
-      <c r="X2" s="40">
-        <v>-15</v>
-      </c>
-      <c r="Y2" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="37">
+      <c r="X2" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y2" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="36">
         <v>30</v>
       </c>
-      <c r="AB2" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AC2" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="37">
+      <c r="AB2" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AC2" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="36">
         <f t="shared" ref="AD2:AD17" si="0">SUM(M2:AC2)</f>
         <v>155</v>
       </c>
@@ -1886,25 +1912,25 @@
       <c r="W3" s="14">
         <v>0</v>
       </c>
-      <c r="X3" s="40">
-        <v>-15</v>
-      </c>
-      <c r="Y3" s="42">
-        <v>-15</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AA3" s="37">
+      <c r="X3" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y3" s="41">
+        <v>-15</v>
+      </c>
+      <c r="Z3" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AA3" s="36">
         <v>-20</v>
       </c>
-      <c r="AB3" s="37">
+      <c r="AB3" s="36">
         <v>0</v>
       </c>
-      <c r="AC3" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="37">
+      <c r="AC3" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="36">
         <f t="shared" si="0"/>
         <v>-80</v>
       </c>
@@ -1979,25 +2005,25 @@
       <c r="W4" s="14">
         <v>0</v>
       </c>
-      <c r="X4" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AA4" s="37">
+      <c r="X4" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AA4" s="36">
         <v>30</v>
       </c>
-      <c r="AB4" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="43">
-        <v>-15</v>
-      </c>
-      <c r="AD4" s="37">
+      <c r="AB4" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="42">
+        <v>-15</v>
+      </c>
+      <c r="AD4" s="36">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -2072,25 +2098,25 @@
       <c r="W5" s="14">
         <v>-15</v>
       </c>
-      <c r="X5" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="42">
-        <v>-15</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="37">
+      <c r="X5" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="41">
+        <v>-15</v>
+      </c>
+      <c r="Z5" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="36">
         <v>30</v>
       </c>
-      <c r="AB5" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="37">
+      <c r="AB5" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="36">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -2165,25 +2191,25 @@
       <c r="W6" s="14">
         <v>0</v>
       </c>
-      <c r="X6" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="37">
+      <c r="X6" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="36">
         <v>30</v>
       </c>
-      <c r="AB6" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="37">
+      <c r="AB6" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="36">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -2258,25 +2284,25 @@
       <c r="W7" s="14">
         <v>10</v>
       </c>
-      <c r="X7" s="40">
-        <v>-15</v>
-      </c>
-      <c r="Y7" s="42">
-        <v>-15</v>
-      </c>
-      <c r="Z7" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AA7" s="37">
+      <c r="X7" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y7" s="41">
+        <v>-15</v>
+      </c>
+      <c r="Z7" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AA7" s="36">
         <v>-20</v>
       </c>
-      <c r="AB7" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="43">
-        <v>-15</v>
-      </c>
-      <c r="AD7" s="37">
+      <c r="AB7" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="42">
+        <v>-15</v>
+      </c>
+      <c r="AD7" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2351,25 +2377,25 @@
       <c r="W8" s="14">
         <v>0</v>
       </c>
-      <c r="X8" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="37">
+      <c r="X8" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="36">
         <v>30</v>
       </c>
-      <c r="AB8" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="37">
+      <c r="AB8" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="36">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
@@ -2444,25 +2470,25 @@
       <c r="W9" s="14">
         <v>0</v>
       </c>
-      <c r="X9" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="37">
+      <c r="X9" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="36">
         <v>30</v>
       </c>
-      <c r="AB9" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC9" s="43">
-        <v>-15</v>
-      </c>
-      <c r="AD9" s="37">
+      <c r="AB9" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="42">
+        <v>-15</v>
+      </c>
+      <c r="AD9" s="36">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
@@ -2537,25 +2563,25 @@
       <c r="W10" s="14">
         <v>-15</v>
       </c>
-      <c r="X10" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="37">
+      <c r="X10" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="36">
         <v>30</v>
       </c>
-      <c r="AB10" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AC10" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="37">
+      <c r="AB10" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AC10" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="36">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -2630,25 +2656,25 @@
       <c r="W11" s="14">
         <v>-15</v>
       </c>
-      <c r="X11" s="40">
-        <v>-15</v>
-      </c>
-      <c r="Y11" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AA11" s="37">
+      <c r="X11" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y11" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AA11" s="36">
         <v>-20</v>
       </c>
-      <c r="AB11" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AC11" s="43">
-        <v>-15</v>
-      </c>
-      <c r="AD11" s="37">
+      <c r="AB11" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AC11" s="42">
+        <v>-15</v>
+      </c>
+      <c r="AD11" s="36">
         <f t="shared" si="0"/>
         <v>-45</v>
       </c>
@@ -2723,25 +2749,25 @@
       <c r="W12" s="14">
         <v>-15</v>
       </c>
-      <c r="X12" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="37">
+      <c r="X12" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="36">
         <v>30</v>
       </c>
-      <c r="AB12" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC12" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD12" s="37">
+      <c r="AB12" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="36">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
@@ -2816,25 +2842,25 @@
       <c r="W13" s="14">
         <v>10</v>
       </c>
-      <c r="X13" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="37">
+      <c r="X13" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="36">
         <v>30</v>
       </c>
-      <c r="AB13" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="37">
+      <c r="AB13" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="36">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -2909,25 +2935,25 @@
       <c r="W14" s="14">
         <v>10</v>
       </c>
-      <c r="X14" s="40">
-        <v>-15</v>
-      </c>
-      <c r="Y14" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AA14" s="37">
+      <c r="X14" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y14" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AA14" s="36">
         <v>30</v>
       </c>
-      <c r="AB14" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AC14" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD14" s="37">
+      <c r="AB14" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AC14" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="36">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -3002,25 +3028,25 @@
       <c r="W15" s="14">
         <v>0</v>
       </c>
-      <c r="X15" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="37">
+      <c r="X15" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="36">
         <v>30</v>
       </c>
-      <c r="AB15" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AC15" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD15" s="37">
+      <c r="AB15" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AC15" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="36">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -3095,25 +3121,25 @@
       <c r="W16" s="14">
         <v>10</v>
       </c>
-      <c r="X16" s="40">
-        <v>-15</v>
-      </c>
-      <c r="Y16" s="42">
-        <v>-15</v>
-      </c>
-      <c r="Z16" s="37">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="37">
+      <c r="X16" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y16" s="41">
+        <v>-15</v>
+      </c>
+      <c r="Z16" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="36">
         <v>30</v>
       </c>
-      <c r="AB16" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AC16" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD16" s="37">
+      <c r="AB16" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AC16" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="36">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -3188,25 +3214,25 @@
       <c r="W17" s="14">
         <v>-15</v>
       </c>
-      <c r="X17" s="40">
-        <v>-15</v>
-      </c>
-      <c r="Y17" s="42">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="37">
-        <v>-15</v>
-      </c>
-      <c r="AA17" s="37">
+      <c r="X17" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y17" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="36">
+        <v>-15</v>
+      </c>
+      <c r="AA17" s="36">
         <v>30</v>
       </c>
-      <c r="AB17" s="37">
-        <v>10</v>
-      </c>
-      <c r="AC17" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD17" s="37">
+      <c r="AB17" s="36">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="42">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3236,7 +3262,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="188" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3960,11 +3986,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="216" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="216" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="topRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3980,7 +4006,7 @@
     <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4056,20 +4082,23 @@
       <c r="Y1" s="32">
         <v>45027</v>
       </c>
-      <c r="Z1" s="38">
+      <c r="Z1" s="37">
         <v>45033</v>
       </c>
-      <c r="AA1" s="38">
+      <c r="AA1" s="37">
         <v>45034</v>
       </c>
-      <c r="AB1" s="38">
+      <c r="AB1" s="37">
         <v>45035</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="37">
+        <v>45041</v>
+      </c>
+      <c r="AD1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -4145,21 +4174,24 @@
       <c r="Y2" s="33">
         <v>10</v>
       </c>
-      <c r="Z2" s="35">
+      <c r="Z2" s="34">
         <v>30</v>
       </c>
-      <c r="AA2" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AC2" s="37">
-        <f t="shared" ref="AC2:AC13" si="0">SUM(L2:AB2)</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA2" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AD2" s="36">
+        <f>SUM(L2:AC2)</f>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -4235,21 +4267,24 @@
       <c r="Y3" s="33">
         <v>10</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="34">
         <v>30</v>
       </c>
-      <c r="AA3" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="35">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="37">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA3" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="34">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="36">
+        <f>SUM(L3:AC3)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -4325,21 +4360,24 @@
       <c r="Y4" s="33">
         <v>-15</v>
       </c>
-      <c r="Z4" s="35">
+      <c r="Z4" s="34">
         <v>30</v>
       </c>
-      <c r="AA4" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AB4" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AC4" s="37">
-        <f t="shared" si="0"/>
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AB4" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AD4" s="36">
+        <f>SUM(L4:AC4)</f>
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -4415,21 +4453,24 @@
       <c r="Y5" s="33">
         <v>-15</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5" s="34">
         <v>-20</v>
       </c>
-      <c r="AA5" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AB5" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AC5" s="37">
-        <f t="shared" si="0"/>
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA5" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AB5" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AD5" s="36">
+        <f>SUM(L5:AC5)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -4505,21 +4546,24 @@
       <c r="Y6" s="33">
         <v>10</v>
       </c>
-      <c r="Z6" s="35">
+      <c r="Z6" s="34">
         <v>30</v>
       </c>
-      <c r="AA6" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="35">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="37">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="36">
+        <f>SUM(L6:AC6)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -4595,21 +4639,24 @@
       <c r="Y7" s="33">
         <v>10</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7" s="34">
         <v>30</v>
       </c>
-      <c r="AA7" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AC7" s="37">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="36">
+        <f>SUM(L7:AC7)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -4685,21 +4732,24 @@
       <c r="Y8" s="33">
         <v>10</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="34">
         <v>30</v>
       </c>
-      <c r="AA8" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AC8" s="37">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AC8" s="34">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="36">
+        <f>SUM(L8:AC8)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -4775,21 +4825,24 @@
       <c r="Y9" s="33">
         <v>10</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Z9" s="34">
         <v>0</v>
       </c>
-      <c r="AA9" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AC9" s="37">
-        <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AC9" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AD9" s="36">
+        <f>SUM(L9:AC9)</f>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -4865,21 +4918,24 @@
       <c r="Y10" s="33">
         <v>10</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="Z10" s="34">
         <v>30</v>
       </c>
-      <c r="AA10" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="35">
-        <v>-15</v>
-      </c>
-      <c r="AC10" s="37">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AC10" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AD10" s="36">
+        <f>SUM(L10:AC10)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -4955,21 +5011,24 @@
       <c r="Y11" s="33">
         <v>-15</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="Z11" s="43">
         <v>30</v>
       </c>
-      <c r="AA11" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="35">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="37">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA11" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="34">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="34">
+        <v>-15</v>
+      </c>
+      <c r="AD11" s="36">
+        <f>SUM(L11:AC11)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -5045,21 +5104,24 @@
       <c r="Y12" s="33">
         <v>10</v>
       </c>
-      <c r="Z12" s="35">
+      <c r="Z12" s="43">
         <v>30</v>
       </c>
-      <c r="AA12" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="35">
+      <c r="AA12" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="34">
         <v>0</v>
       </c>
-      <c r="AC12" s="37">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC12" s="34">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="36">
+        <f>SUM(L12:AC12)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -5135,21 +5197,24 @@
       <c r="Y13" s="33">
         <v>10</v>
       </c>
-      <c r="Z13" s="35">
+      <c r="Z13" s="43">
         <v>30</v>
       </c>
-      <c r="AA13" s="35">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="35">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="37">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA13" s="34">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="34">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="34">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="36">
+        <f>SUM(L13:AC13)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
@@ -5175,9 +5240,13 @@
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
-      <c r="Z14" s="34"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
@@ -5203,9 +5272,13 @@
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
-      <c r="Z15" s="22"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+    </row>
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
@@ -5231,9 +5304,13 @@
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
-      <c r="Z16" s="22"/>
-    </row>
-    <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+    </row>
+    <row r="17" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
@@ -5259,10 +5336,14 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
-      <c r="Z17" s="22"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AC2:AC13">
+  <conditionalFormatting sqref="AD2:AD13">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5286,7 +5367,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5591,7 +5672,9 @@
       <c r="F8" s="31">
         <v>12</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="30">
+        <v>11</v>
+      </c>
       <c r="H8" s="30">
         <v>11</v>
       </c>
@@ -5599,7 +5682,7 @@
       <c r="J8" s="30"/>
       <c r="K8" s="29">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
